--- a/data/134/DEUSTATIS/old/Producer price index for industrial products - GP4 codes - 2016.xlsx
+++ b/data/134/DEUSTATIS/old/Producer price index for industrial products - GP4 codes - 2016.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1465" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="486">
   <si>
     <t>Producer price index for industrial products: Germany,
 months, product classification (GP2009 2-/3-/4-/5-/6-/
@@ -1471,7 +1471,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-10-07 / 10:28:21</t>
+    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-12-28 / 11:25:38</t>
   </si>
 </sst>
 </file>
@@ -3849,14 +3849,14 @@
       <c r="BR7" t="n" s="10">
         <v>112.6</v>
       </c>
-      <c r="BS7" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT7" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU7" t="s" s="10">
-        <v>25</v>
+      <c r="BS7" t="n" s="10">
+        <v>112.6</v>
+      </c>
+      <c r="BT7" t="n" s="10">
+        <v>104.3</v>
+      </c>
+      <c r="BU7" t="n" s="10">
+        <v>104.2</v>
       </c>
       <c r="BV7" t="s" s="10">
         <v>25</v>
@@ -4073,14 +4073,14 @@
       <c r="BR8" t="n" s="10">
         <v>136.1</v>
       </c>
-      <c r="BS8" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT8" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU8" t="s" s="10">
-        <v>25</v>
+      <c r="BS8" t="n" s="10">
+        <v>133.2</v>
+      </c>
+      <c r="BT8" t="n" s="10">
+        <v>144.7</v>
+      </c>
+      <c r="BU8" t="n" s="10">
+        <v>158.3</v>
       </c>
       <c r="BV8" t="s" s="10">
         <v>25</v>
@@ -4297,14 +4297,14 @@
       <c r="BR9" t="n" s="10">
         <v>124.3</v>
       </c>
-      <c r="BS9" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT9" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU9" t="s" s="10">
-        <v>25</v>
+      <c r="BS9" t="n" s="10">
+        <v>142.9</v>
+      </c>
+      <c r="BT9" t="n" s="10">
+        <v>202.6</v>
+      </c>
+      <c r="BU9" t="n" s="10">
+        <v>266.5</v>
       </c>
       <c r="BV9" t="s" s="10">
         <v>25</v>
@@ -4521,14 +4521,14 @@
       <c r="BR10" t="n" s="10">
         <v>116.6</v>
       </c>
-      <c r="BS10" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT10" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU10" t="s" s="10">
-        <v>25</v>
+      <c r="BS10" t="n" s="10">
+        <v>116.6</v>
+      </c>
+      <c r="BT10" t="n" s="10">
+        <v>115.7</v>
+      </c>
+      <c r="BU10" t="n" s="10">
+        <v>115.7</v>
       </c>
       <c r="BV10" t="s" s="10">
         <v>25</v>
@@ -4745,14 +4745,14 @@
       <c r="BR11" t="n" s="10">
         <v>123.7</v>
       </c>
-      <c r="BS11" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT11" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU11" t="s" s="10">
-        <v>25</v>
+      <c r="BS11" t="n" s="10">
+        <v>123.8</v>
+      </c>
+      <c r="BT11" t="n" s="10">
+        <v>123.8</v>
+      </c>
+      <c r="BU11" t="n" s="10">
+        <v>123.4</v>
       </c>
       <c r="BV11" t="s" s="10">
         <v>25</v>
@@ -4969,14 +4969,14 @@
       <c r="BR12" t="n" s="10">
         <v>99.0</v>
       </c>
-      <c r="BS12" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT12" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU12" t="s" s="10">
-        <v>25</v>
+      <c r="BS12" t="n" s="10">
+        <v>98.7</v>
+      </c>
+      <c r="BT12" t="n" s="10">
+        <v>98.7</v>
+      </c>
+      <c r="BU12" t="n" s="10">
+        <v>99.9</v>
       </c>
       <c r="BV12" t="s" s="10">
         <v>25</v>
@@ -5193,14 +5193,14 @@
       <c r="BR13" t="n" s="10">
         <v>111.8</v>
       </c>
-      <c r="BS13" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT13" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU13" t="s" s="10">
-        <v>25</v>
+      <c r="BS13" t="n" s="10">
+        <v>108.2</v>
+      </c>
+      <c r="BT13" t="n" s="10">
+        <v>106.4</v>
+      </c>
+      <c r="BU13" t="n" s="10">
+        <v>106.6</v>
       </c>
       <c r="BV13" t="s" s="10">
         <v>25</v>
@@ -5417,14 +5417,14 @@
       <c r="BR14" t="n" s="10">
         <v>106.4</v>
       </c>
-      <c r="BS14" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT14" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU14" t="s" s="10">
-        <v>25</v>
+      <c r="BS14" t="n" s="10">
+        <v>105.7</v>
+      </c>
+      <c r="BT14" t="n" s="10">
+        <v>107.1</v>
+      </c>
+      <c r="BU14" t="n" s="10">
+        <v>108.3</v>
       </c>
       <c r="BV14" t="s" s="10">
         <v>25</v>
@@ -5641,14 +5641,14 @@
       <c r="BR15" t="n" s="10">
         <v>108.1</v>
       </c>
-      <c r="BS15" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT15" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU15" t="s" s="10">
-        <v>25</v>
+      <c r="BS15" t="n" s="10">
+        <v>108.4</v>
+      </c>
+      <c r="BT15" t="n" s="10">
+        <v>108.4</v>
+      </c>
+      <c r="BU15" t="n" s="10">
+        <v>108.6</v>
       </c>
       <c r="BV15" t="s" s="10">
         <v>25</v>
@@ -5865,14 +5865,14 @@
       <c r="BR16" t="n" s="10">
         <v>110.3</v>
       </c>
-      <c r="BS16" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT16" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU16" t="s" s="10">
-        <v>25</v>
+      <c r="BS16" t="n" s="10">
+        <v>110.2</v>
+      </c>
+      <c r="BT16" t="n" s="10">
+        <v>110.9</v>
+      </c>
+      <c r="BU16" t="n" s="10">
+        <v>110.9</v>
       </c>
       <c r="BV16" t="s" s="10">
         <v>25</v>
@@ -6089,14 +6089,14 @@
       <c r="BR17" t="n" s="10">
         <v>104.9</v>
       </c>
-      <c r="BS17" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT17" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU17" t="s" s="10">
-        <v>25</v>
+      <c r="BS17" t="n" s="10">
+        <v>104.8</v>
+      </c>
+      <c r="BT17" t="n" s="10">
+        <v>105.5</v>
+      </c>
+      <c r="BU17" t="n" s="10">
+        <v>105.2</v>
       </c>
       <c r="BV17" t="s" s="10">
         <v>25</v>
@@ -6313,14 +6313,14 @@
       <c r="BR18" t="n" s="10">
         <v>114.3</v>
       </c>
-      <c r="BS18" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT18" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU18" t="s" s="10">
-        <v>25</v>
+      <c r="BS18" t="n" s="10">
+        <v>113.8</v>
+      </c>
+      <c r="BT18" t="n" s="10">
+        <v>114.4</v>
+      </c>
+      <c r="BU18" t="n" s="10">
+        <v>115.2</v>
       </c>
       <c r="BV18" t="s" s="10">
         <v>25</v>
@@ -6537,14 +6537,14 @@
       <c r="BR19" t="n" s="10">
         <v>112.0</v>
       </c>
-      <c r="BS19" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT19" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU19" t="s" s="10">
-        <v>25</v>
+      <c r="BS19" t="n" s="10">
+        <v>112.8</v>
+      </c>
+      <c r="BT19" t="n" s="10">
+        <v>112.9</v>
+      </c>
+      <c r="BU19" t="n" s="10">
+        <v>112.9</v>
       </c>
       <c r="BV19" t="s" s="10">
         <v>25</v>
@@ -6761,14 +6761,14 @@
       <c r="BR20" t="n" s="10">
         <v>138.6</v>
       </c>
-      <c r="BS20" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT20" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU20" t="s" s="10">
-        <v>25</v>
+      <c r="BS20" t="n" s="10">
+        <v>144.0</v>
+      </c>
+      <c r="BT20" t="n" s="10">
+        <v>151.8</v>
+      </c>
+      <c r="BU20" t="n" s="10">
+        <v>159.1</v>
       </c>
       <c r="BV20" t="s" s="10">
         <v>25</v>
@@ -6985,14 +6985,14 @@
       <c r="BR21" t="n" s="10">
         <v>119.2</v>
       </c>
-      <c r="BS21" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT21" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU21" t="s" s="10">
-        <v>25</v>
+      <c r="BS21" t="n" s="10">
+        <v>119.2</v>
+      </c>
+      <c r="BT21" t="n" s="10">
+        <v>119.3</v>
+      </c>
+      <c r="BU21" t="n" s="10">
+        <v>121.0</v>
       </c>
       <c r="BV21" t="s" s="10">
         <v>25</v>
@@ -7209,14 +7209,14 @@
       <c r="BR22" t="n" s="10">
         <v>115.0</v>
       </c>
-      <c r="BS22" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT22" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU22" t="s" s="10">
-        <v>25</v>
+      <c r="BS22" t="n" s="10">
+        <v>115.4</v>
+      </c>
+      <c r="BT22" t="n" s="10">
+        <v>117.3</v>
+      </c>
+      <c r="BU22" t="n" s="10">
+        <v>120.9</v>
       </c>
       <c r="BV22" t="s" s="10">
         <v>25</v>
@@ -7433,14 +7433,14 @@
       <c r="BR23" t="n" s="10">
         <v>98.3</v>
       </c>
-      <c r="BS23" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT23" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU23" t="s" s="10">
-        <v>25</v>
+      <c r="BS23" t="n" s="10">
+        <v>98.3</v>
+      </c>
+      <c r="BT23" t="n" s="10">
+        <v>98.7</v>
+      </c>
+      <c r="BU23" t="n" s="10">
+        <v>100.4</v>
       </c>
       <c r="BV23" t="s" s="10">
         <v>25</v>
@@ -7657,14 +7657,14 @@
       <c r="BR24" t="n" s="10">
         <v>105.3</v>
       </c>
-      <c r="BS24" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT24" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU24" t="s" s="10">
-        <v>25</v>
+      <c r="BS24" t="n" s="10">
+        <v>106.3</v>
+      </c>
+      <c r="BT24" t="n" s="10">
+        <v>109.7</v>
+      </c>
+      <c r="BU24" t="n" s="10">
+        <v>112.2</v>
       </c>
       <c r="BV24" t="s" s="10">
         <v>25</v>
@@ -7881,14 +7881,14 @@
       <c r="BR25" t="n" s="10">
         <v>117.9</v>
       </c>
-      <c r="BS25" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT25" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU25" t="s" s="10">
-        <v>25</v>
+      <c r="BS25" t="n" s="10">
+        <v>118.7</v>
+      </c>
+      <c r="BT25" t="n" s="10">
+        <v>129.2</v>
+      </c>
+      <c r="BU25" t="n" s="10">
+        <v>131.2</v>
       </c>
       <c r="BV25" t="s" s="10">
         <v>25</v>
@@ -8105,14 +8105,14 @@
       <c r="BR26" t="n" s="10">
         <v>115.4</v>
       </c>
-      <c r="BS26" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT26" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU26" t="s" s="10">
-        <v>25</v>
+      <c r="BS26" t="n" s="10">
+        <v>116.4</v>
+      </c>
+      <c r="BT26" t="n" s="10">
+        <v>116.5</v>
+      </c>
+      <c r="BU26" t="n" s="10">
+        <v>116.8</v>
       </c>
       <c r="BV26" t="s" s="10">
         <v>25</v>
@@ -8329,14 +8329,14 @@
       <c r="BR27" t="n" s="10">
         <v>109.3</v>
       </c>
-      <c r="BS27" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT27" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU27" t="s" s="10">
-        <v>25</v>
+      <c r="BS27" t="n" s="10">
+        <v>109.3</v>
+      </c>
+      <c r="BT27" t="n" s="10">
+        <v>109.4</v>
+      </c>
+      <c r="BU27" t="n" s="10">
+        <v>109.4</v>
       </c>
       <c r="BV27" t="s" s="10">
         <v>25</v>
@@ -8553,14 +8553,14 @@
       <c r="BR28" t="n" s="10">
         <v>99.2</v>
       </c>
-      <c r="BS28" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT28" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU28" t="s" s="10">
-        <v>25</v>
+      <c r="BS28" t="n" s="10">
+        <v>99.2</v>
+      </c>
+      <c r="BT28" t="n" s="10">
+        <v>99.2</v>
+      </c>
+      <c r="BU28" t="n" s="10">
+        <v>100.3</v>
       </c>
       <c r="BV28" t="s" s="10">
         <v>25</v>
@@ -8777,14 +8777,14 @@
       <c r="BR29" t="n" s="10">
         <v>96.0</v>
       </c>
-      <c r="BS29" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT29" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU29" t="s" s="10">
-        <v>25</v>
+      <c r="BS29" t="n" s="10">
+        <v>96.1</v>
+      </c>
+      <c r="BT29" t="n" s="10">
+        <v>102.3</v>
+      </c>
+      <c r="BU29" t="n" s="10">
+        <v>102.7</v>
       </c>
       <c r="BV29" t="s" s="10">
         <v>25</v>
@@ -9001,14 +9001,14 @@
       <c r="BR30" t="n" s="10">
         <v>108.4</v>
       </c>
-      <c r="BS30" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT30" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU30" t="s" s="10">
-        <v>25</v>
+      <c r="BS30" t="n" s="10">
+        <v>108.4</v>
+      </c>
+      <c r="BT30" t="n" s="10">
+        <v>108.6</v>
+      </c>
+      <c r="BU30" t="n" s="10">
+        <v>108.5</v>
       </c>
       <c r="BV30" t="s" s="10">
         <v>25</v>
@@ -9225,14 +9225,14 @@
       <c r="BR31" t="n" s="10">
         <v>100.5</v>
       </c>
-      <c r="BS31" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT31" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU31" t="s" s="10">
-        <v>25</v>
+      <c r="BS31" t="n" s="10">
+        <v>100.9</v>
+      </c>
+      <c r="BT31" t="n" s="10">
+        <v>102.6</v>
+      </c>
+      <c r="BU31" t="n" s="10">
+        <v>105.8</v>
       </c>
       <c r="BV31" t="s" s="10">
         <v>25</v>
@@ -9449,14 +9449,14 @@
       <c r="BR32" t="n" s="10">
         <v>101.5</v>
       </c>
-      <c r="BS32" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT32" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU32" t="s" s="10">
-        <v>25</v>
+      <c r="BS32" t="n" s="10">
+        <v>101.5</v>
+      </c>
+      <c r="BT32" t="n" s="10">
+        <v>102.6</v>
+      </c>
+      <c r="BU32" t="n" s="10">
+        <v>102.8</v>
       </c>
       <c r="BV32" t="s" s="10">
         <v>25</v>
@@ -9673,14 +9673,14 @@
       <c r="BR33" t="n" s="10">
         <v>103.0</v>
       </c>
-      <c r="BS33" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT33" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU33" t="s" s="10">
-        <v>25</v>
+      <c r="BS33" t="n" s="10">
+        <v>103.0</v>
+      </c>
+      <c r="BT33" t="n" s="10">
+        <v>103.2</v>
+      </c>
+      <c r="BU33" t="n" s="10">
+        <v>103.5</v>
       </c>
       <c r="BV33" t="s" s="10">
         <v>25</v>
@@ -9897,14 +9897,14 @@
       <c r="BR34" t="n" s="10">
         <v>112.2</v>
       </c>
-      <c r="BS34" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT34" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU34" t="s" s="10">
-        <v>25</v>
+      <c r="BS34" t="n" s="10">
+        <v>111.4</v>
+      </c>
+      <c r="BT34" t="n" s="10">
+        <v>111.4</v>
+      </c>
+      <c r="BU34" t="n" s="10">
+        <v>111.4</v>
       </c>
       <c r="BV34" t="s" s="10">
         <v>25</v>
@@ -10121,14 +10121,14 @@
       <c r="BR35" t="n" s="10">
         <v>105.0</v>
       </c>
-      <c r="BS35" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT35" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU35" t="s" s="10">
-        <v>25</v>
+      <c r="BS35" t="n" s="10">
+        <v>105.1</v>
+      </c>
+      <c r="BT35" t="n" s="10">
+        <v>105.3</v>
+      </c>
+      <c r="BU35" t="n" s="10">
+        <v>105.5</v>
       </c>
       <c r="BV35" t="s" s="10">
         <v>25</v>
@@ -10345,14 +10345,14 @@
       <c r="BR36" t="n" s="10">
         <v>118.1</v>
       </c>
-      <c r="BS36" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT36" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU36" t="s" s="10">
-        <v>25</v>
+      <c r="BS36" t="n" s="10">
+        <v>121.1</v>
+      </c>
+      <c r="BT36" t="n" s="10">
+        <v>124.1</v>
+      </c>
+      <c r="BU36" t="n" s="10">
+        <v>129.6</v>
       </c>
       <c r="BV36" t="s" s="10">
         <v>25</v>
@@ -10569,14 +10569,14 @@
       <c r="BR37" t="n" s="10">
         <v>109.3</v>
       </c>
-      <c r="BS37" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT37" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU37" t="s" s="10">
-        <v>25</v>
+      <c r="BS37" t="n" s="10">
+        <v>109.3</v>
+      </c>
+      <c r="BT37" t="n" s="10">
+        <v>110.1</v>
+      </c>
+      <c r="BU37" t="n" s="10">
+        <v>110.3</v>
       </c>
       <c r="BV37" t="s" s="10">
         <v>25</v>
@@ -10793,14 +10793,14 @@
       <c r="BR38" t="n" s="10">
         <v>106.9</v>
       </c>
-      <c r="BS38" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT38" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU38" t="s" s="10">
-        <v>25</v>
+      <c r="BS38" t="n" s="10">
+        <v>106.9</v>
+      </c>
+      <c r="BT38" t="n" s="10">
+        <v>106.9</v>
+      </c>
+      <c r="BU38" t="n" s="10">
+        <v>106.9</v>
       </c>
       <c r="BV38" t="s" s="10">
         <v>25</v>
@@ -11017,14 +11017,14 @@
       <c r="BR39" t="n" s="10">
         <v>100.2</v>
       </c>
-      <c r="BS39" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT39" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU39" t="s" s="10">
-        <v>25</v>
+      <c r="BS39" t="n" s="10">
+        <v>100.4</v>
+      </c>
+      <c r="BT39" t="n" s="10">
+        <v>100.6</v>
+      </c>
+      <c r="BU39" t="n" s="10">
+        <v>100.6</v>
       </c>
       <c r="BV39" t="s" s="10">
         <v>25</v>
@@ -11241,14 +11241,14 @@
       <c r="BR40" t="n" s="10">
         <v>109.9</v>
       </c>
-      <c r="BS40" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT40" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU40" t="s" s="10">
-        <v>25</v>
+      <c r="BS40" t="n" s="10">
+        <v>109.9</v>
+      </c>
+      <c r="BT40" t="n" s="10">
+        <v>109.9</v>
+      </c>
+      <c r="BU40" t="n" s="10">
+        <v>109.9</v>
       </c>
       <c r="BV40" t="s" s="10">
         <v>25</v>
@@ -11465,14 +11465,14 @@
       <c r="BR41" t="n" s="10">
         <v>115.3</v>
       </c>
-      <c r="BS41" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT41" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU41" t="s" s="10">
-        <v>25</v>
+      <c r="BS41" t="n" s="10">
+        <v>118.4</v>
+      </c>
+      <c r="BT41" t="n" s="10">
+        <v>129.7</v>
+      </c>
+      <c r="BU41" t="n" s="10">
+        <v>131.5</v>
       </c>
       <c r="BV41" t="s" s="10">
         <v>25</v>
@@ -11689,14 +11689,14 @@
       <c r="BR42" t="n" s="10">
         <v>110.6</v>
       </c>
-      <c r="BS42" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT42" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU42" t="s" s="10">
-        <v>25</v>
+      <c r="BS42" t="n" s="10">
+        <v>110.5</v>
+      </c>
+      <c r="BT42" t="n" s="10">
+        <v>110.7</v>
+      </c>
+      <c r="BU42" t="n" s="10">
+        <v>110.6</v>
       </c>
       <c r="BV42" t="s" s="10">
         <v>25</v>
@@ -11913,14 +11913,14 @@
       <c r="BR43" t="n" s="10">
         <v>114.9</v>
       </c>
-      <c r="BS43" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT43" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU43" t="s" s="10">
-        <v>25</v>
+      <c r="BS43" t="n" s="10">
+        <v>114.9</v>
+      </c>
+      <c r="BT43" t="n" s="10">
+        <v>115.3</v>
+      </c>
+      <c r="BU43" t="n" s="10">
+        <v>115.3</v>
       </c>
       <c r="BV43" t="s" s="10">
         <v>25</v>
@@ -12137,14 +12137,14 @@
       <c r="BR44" t="n" s="10">
         <v>106.8</v>
       </c>
-      <c r="BS44" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT44" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU44" t="s" s="10">
-        <v>25</v>
+      <c r="BS44" t="n" s="10">
+        <v>107.4</v>
+      </c>
+      <c r="BT44" t="n" s="10">
+        <v>108.7</v>
+      </c>
+      <c r="BU44" t="n" s="10">
+        <v>109.5</v>
       </c>
       <c r="BV44" t="s" s="10">
         <v>25</v>
@@ -12361,14 +12361,14 @@
       <c r="BR45" t="n" s="10">
         <v>102.1</v>
       </c>
-      <c r="BS45" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT45" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU45" t="s" s="10">
-        <v>25</v>
+      <c r="BS45" t="n" s="10">
+        <v>102.2</v>
+      </c>
+      <c r="BT45" t="n" s="10">
+        <v>102.8</v>
+      </c>
+      <c r="BU45" t="n" s="10">
+        <v>103.5</v>
       </c>
       <c r="BV45" t="s" s="10">
         <v>25</v>
@@ -12585,14 +12585,14 @@
       <c r="BR46" t="n" s="10">
         <v>106.5</v>
       </c>
-      <c r="BS46" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT46" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU46" t="s" s="10">
-        <v>25</v>
+      <c r="BS46" t="n" s="10">
+        <v>106.6</v>
+      </c>
+      <c r="BT46" t="n" s="10">
+        <v>106.8</v>
+      </c>
+      <c r="BU46" t="n" s="10">
+        <v>107.2</v>
       </c>
       <c r="BV46" t="s" s="10">
         <v>25</v>
@@ -12809,14 +12809,14 @@
       <c r="BR47" t="n" s="10">
         <v>104.1</v>
       </c>
-      <c r="BS47" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT47" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU47" t="s" s="10">
-        <v>25</v>
+      <c r="BS47" t="n" s="10">
+        <v>103.8</v>
+      </c>
+      <c r="BT47" t="n" s="10">
+        <v>104.5</v>
+      </c>
+      <c r="BU47" t="n" s="10">
+        <v>103.9</v>
       </c>
       <c r="BV47" t="s" s="10">
         <v>25</v>
@@ -13033,14 +13033,14 @@
       <c r="BR48" t="n" s="10">
         <v>109.1</v>
       </c>
-      <c r="BS48" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT48" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU48" t="s" s="10">
-        <v>25</v>
+      <c r="BS48" t="n" s="10">
+        <v>109.5</v>
+      </c>
+      <c r="BT48" t="n" s="10">
+        <v>109.8</v>
+      </c>
+      <c r="BU48" t="n" s="10">
+        <v>109.9</v>
       </c>
       <c r="BV48" t="s" s="10">
         <v>25</v>
@@ -13257,14 +13257,14 @@
       <c r="BR49" t="n" s="10">
         <v>104.0</v>
       </c>
-      <c r="BS49" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT49" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU49" t="s" s="10">
-        <v>25</v>
+      <c r="BS49" t="n" s="10">
+        <v>103.9</v>
+      </c>
+      <c r="BT49" t="n" s="10">
+        <v>103.9</v>
+      </c>
+      <c r="BU49" t="n" s="10">
+        <v>103.9</v>
       </c>
       <c r="BV49" t="s" s="10">
         <v>25</v>
@@ -13481,14 +13481,14 @@
       <c r="BR50" t="n" s="10">
         <v>109.2</v>
       </c>
-      <c r="BS50" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT50" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU50" t="s" s="10">
-        <v>25</v>
+      <c r="BS50" t="n" s="10">
+        <v>111.6</v>
+      </c>
+      <c r="BT50" t="n" s="10">
+        <v>112.6</v>
+      </c>
+      <c r="BU50" t="n" s="10">
+        <v>113.2</v>
       </c>
       <c r="BV50" t="s" s="10">
         <v>25</v>
@@ -13705,14 +13705,14 @@
       <c r="BR51" t="n" s="10">
         <v>101.9</v>
       </c>
-      <c r="BS51" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT51" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU51" t="s" s="10">
-        <v>25</v>
+      <c r="BS51" t="n" s="10">
+        <v>101.9</v>
+      </c>
+      <c r="BT51" t="n" s="10">
+        <v>102.3</v>
+      </c>
+      <c r="BU51" t="n" s="10">
+        <v>102.4</v>
       </c>
       <c r="BV51" t="s" s="10">
         <v>25</v>
@@ -13929,14 +13929,14 @@
       <c r="BR52" t="n" s="10">
         <v>110.3</v>
       </c>
-      <c r="BS52" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT52" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU52" t="s" s="10">
-        <v>25</v>
+      <c r="BS52" t="n" s="10">
+        <v>111.8</v>
+      </c>
+      <c r="BT52" t="n" s="10">
+        <v>112.7</v>
+      </c>
+      <c r="BU52" t="n" s="10">
+        <v>114.0</v>
       </c>
       <c r="BV52" t="s" s="10">
         <v>25</v>
@@ -14153,14 +14153,14 @@
       <c r="BR53" t="n" s="10">
         <v>98.4</v>
       </c>
-      <c r="BS53" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT53" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU53" t="s" s="10">
-        <v>25</v>
+      <c r="BS53" t="n" s="10">
+        <v>98.4</v>
+      </c>
+      <c r="BT53" t="n" s="10">
+        <v>98.4</v>
+      </c>
+      <c r="BU53" t="n" s="10">
+        <v>98.4</v>
       </c>
       <c r="BV53" t="s" s="10">
         <v>25</v>
@@ -14377,14 +14377,14 @@
       <c r="BR54" t="n" s="10">
         <v>112.9</v>
       </c>
-      <c r="BS54" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT54" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU54" t="s" s="10">
-        <v>25</v>
+      <c r="BS54" t="n" s="10">
+        <v>113.9</v>
+      </c>
+      <c r="BT54" t="n" s="10">
+        <v>114.4</v>
+      </c>
+      <c r="BU54" t="n" s="10">
+        <v>114.9</v>
       </c>
       <c r="BV54" t="s" s="10">
         <v>25</v>
@@ -14601,14 +14601,14 @@
       <c r="BR55" t="n" s="10">
         <v>102.9</v>
       </c>
-      <c r="BS55" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT55" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU55" t="s" s="10">
-        <v>25</v>
+      <c r="BS55" t="n" s="10">
+        <v>102.9</v>
+      </c>
+      <c r="BT55" t="n" s="10">
+        <v>102.9</v>
+      </c>
+      <c r="BU55" t="n" s="10">
+        <v>103.0</v>
       </c>
       <c r="BV55" t="s" s="10">
         <v>25</v>
@@ -14825,14 +14825,14 @@
       <c r="BR56" t="n" s="10">
         <v>107.0</v>
       </c>
-      <c r="BS56" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT56" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU56" t="s" s="10">
-        <v>25</v>
+      <c r="BS56" t="n" s="10">
+        <v>107.0</v>
+      </c>
+      <c r="BT56" t="n" s="10">
+        <v>109.3</v>
+      </c>
+      <c r="BU56" t="n" s="10">
+        <v>109.3</v>
       </c>
       <c r="BV56" t="s" s="10">
         <v>25</v>
@@ -15049,14 +15049,14 @@
       <c r="BR57" t="n" s="10">
         <v>108.0</v>
       </c>
-      <c r="BS57" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT57" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU57" t="s" s="10">
-        <v>25</v>
+      <c r="BS57" t="n" s="10">
+        <v>108.0</v>
+      </c>
+      <c r="BT57" t="n" s="10">
+        <v>108.0</v>
+      </c>
+      <c r="BU57" t="n" s="10">
+        <v>108.3</v>
       </c>
       <c r="BV57" t="s" s="10">
         <v>25</v>
@@ -15273,14 +15273,14 @@
       <c r="BR58" t="n" s="10">
         <v>107.2</v>
       </c>
-      <c r="BS58" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT58" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU58" t="s" s="10">
-        <v>25</v>
+      <c r="BS58" t="n" s="10">
+        <v>107.2</v>
+      </c>
+      <c r="BT58" t="n" s="10">
+        <v>107.2</v>
+      </c>
+      <c r="BU58" t="n" s="10">
+        <v>107.2</v>
       </c>
       <c r="BV58" t="s" s="10">
         <v>25</v>
@@ -15497,14 +15497,14 @@
       <c r="BR59" t="n" s="10">
         <v>103.3</v>
       </c>
-      <c r="BS59" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT59" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU59" t="s" s="10">
-        <v>25</v>
+      <c r="BS59" t="n" s="10">
+        <v>103.3</v>
+      </c>
+      <c r="BT59" t="n" s="10">
+        <v>103.3</v>
+      </c>
+      <c r="BU59" t="n" s="10">
+        <v>103.3</v>
       </c>
       <c r="BV59" t="s" s="10">
         <v>25</v>
@@ -15721,14 +15721,14 @@
       <c r="BR60" t="n" s="10">
         <v>98.3</v>
       </c>
-      <c r="BS60" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT60" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU60" t="s" s="10">
-        <v>25</v>
+      <c r="BS60" t="n" s="10">
+        <v>98.3</v>
+      </c>
+      <c r="BT60" t="n" s="10">
+        <v>98.3</v>
+      </c>
+      <c r="BU60" t="n" s="10">
+        <v>99.0</v>
       </c>
       <c r="BV60" t="s" s="10">
         <v>25</v>
@@ -15945,14 +15945,14 @@
       <c r="BR61" t="n" s="10">
         <v>104.3</v>
       </c>
-      <c r="BS61" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT61" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU61" t="s" s="10">
-        <v>25</v>
+      <c r="BS61" t="n" s="10">
+        <v>104.3</v>
+      </c>
+      <c r="BT61" t="n" s="10">
+        <v>105.5</v>
+      </c>
+      <c r="BU61" t="n" s="10">
+        <v>106.0</v>
       </c>
       <c r="BV61" t="s" s="10">
         <v>25</v>
@@ -16169,14 +16169,14 @@
       <c r="BR62" t="n" s="10">
         <v>107.4</v>
       </c>
-      <c r="BS62" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT62" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU62" t="s" s="10">
-        <v>25</v>
+      <c r="BS62" t="n" s="10">
+        <v>107.4</v>
+      </c>
+      <c r="BT62" t="n" s="10">
+        <v>107.6</v>
+      </c>
+      <c r="BU62" t="n" s="10">
+        <v>108.2</v>
       </c>
       <c r="BV62" t="s" s="10">
         <v>25</v>
@@ -16393,14 +16393,14 @@
       <c r="BR63" t="n" s="10">
         <v>194.8</v>
       </c>
-      <c r="BS63" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT63" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU63" t="s" s="10">
-        <v>25</v>
+      <c r="BS63" t="n" s="10">
+        <v>188.8</v>
+      </c>
+      <c r="BT63" t="n" s="10">
+        <v>175.9</v>
+      </c>
+      <c r="BU63" t="n" s="10">
+        <v>164.9</v>
       </c>
       <c r="BV63" t="s" s="10">
         <v>25</v>
@@ -16617,14 +16617,14 @@
       <c r="BR64" t="n" s="10">
         <v>124.8</v>
       </c>
-      <c r="BS64" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT64" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU64" t="s" s="10">
-        <v>25</v>
+      <c r="BS64" t="n" s="10">
+        <v>128.4</v>
+      </c>
+      <c r="BT64" t="n" s="10">
+        <v>129.6</v>
+      </c>
+      <c r="BU64" t="n" s="10">
+        <v>131.9</v>
       </c>
       <c r="BV64" t="s" s="10">
         <v>25</v>
@@ -16841,14 +16841,14 @@
       <c r="BR65" t="n" s="10">
         <v>108.8</v>
       </c>
-      <c r="BS65" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT65" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU65" t="s" s="10">
-        <v>25</v>
+      <c r="BS65" t="n" s="10">
+        <v>108.9</v>
+      </c>
+      <c r="BT65" t="n" s="10">
+        <v>110.5</v>
+      </c>
+      <c r="BU65" t="n" s="10">
+        <v>109.6</v>
       </c>
       <c r="BV65" t="s" s="10">
         <v>25</v>
@@ -17065,14 +17065,14 @@
       <c r="BR66" t="n" s="10">
         <v>122.9</v>
       </c>
-      <c r="BS66" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT66" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU66" t="s" s="10">
-        <v>25</v>
+      <c r="BS66" t="n" s="10">
+        <v>123.4</v>
+      </c>
+      <c r="BT66" t="n" s="10">
+        <v>124.7</v>
+      </c>
+      <c r="BU66" t="n" s="10">
+        <v>125.2</v>
       </c>
       <c r="BV66" t="s" s="10">
         <v>25</v>
@@ -17289,14 +17289,14 @@
       <c r="BR67" t="n" s="10">
         <v>195.3</v>
       </c>
-      <c r="BS67" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT67" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU67" t="s" s="10">
-        <v>25</v>
+      <c r="BS67" t="n" s="10">
+        <v>199.2</v>
+      </c>
+      <c r="BT67" t="n" s="10">
+        <v>189.6</v>
+      </c>
+      <c r="BU67" t="n" s="10">
+        <v>182.2</v>
       </c>
       <c r="BV67" t="s" s="10">
         <v>25</v>
@@ -17513,14 +17513,14 @@
       <c r="BR68" t="n" s="10">
         <v>128.7</v>
       </c>
-      <c r="BS68" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT68" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU68" t="s" s="10">
-        <v>25</v>
+      <c r="BS68" t="n" s="10">
+        <v>128.5</v>
+      </c>
+      <c r="BT68" t="n" s="10">
+        <v>129.9</v>
+      </c>
+      <c r="BU68" t="n" s="10">
+        <v>129.7</v>
       </c>
       <c r="BV68" t="s" s="10">
         <v>25</v>
@@ -17737,14 +17737,14 @@
       <c r="BR69" t="n" s="10">
         <v>120.9</v>
       </c>
-      <c r="BS69" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT69" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU69" t="s" s="10">
-        <v>25</v>
+      <c r="BS69" t="n" s="10">
+        <v>121.2</v>
+      </c>
+      <c r="BT69" t="n" s="10">
+        <v>121.2</v>
+      </c>
+      <c r="BU69" t="n" s="10">
+        <v>120.1</v>
       </c>
       <c r="BV69" t="s" s="10">
         <v>25</v>
@@ -17961,14 +17961,14 @@
       <c r="BR70" t="n" s="10">
         <v>115.1</v>
       </c>
-      <c r="BS70" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT70" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU70" t="s" s="10">
-        <v>25</v>
+      <c r="BS70" t="n" s="10">
+        <v>118.2</v>
+      </c>
+      <c r="BT70" t="n" s="10">
+        <v>120.7</v>
+      </c>
+      <c r="BU70" t="n" s="10">
+        <v>126.0</v>
       </c>
       <c r="BV70" t="s" s="10">
         <v>25</v>
@@ -18185,14 +18185,14 @@
       <c r="BR71" t="n" s="10">
         <v>112.0</v>
       </c>
-      <c r="BS71" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT71" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU71" t="s" s="10">
-        <v>25</v>
+      <c r="BS71" t="n" s="10">
+        <v>114.3</v>
+      </c>
+      <c r="BT71" t="n" s="10">
+        <v>115.8</v>
+      </c>
+      <c r="BU71" t="n" s="10">
+        <v>118.6</v>
       </c>
       <c r="BV71" t="s" s="10">
         <v>25</v>
@@ -18409,14 +18409,14 @@
       <c r="BR72" t="n" s="10">
         <v>101.6</v>
       </c>
-      <c r="BS72" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT72" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU72" t="s" s="10">
-        <v>25</v>
+      <c r="BS72" t="n" s="10">
+        <v>101.4</v>
+      </c>
+      <c r="BT72" t="n" s="10">
+        <v>101.9</v>
+      </c>
+      <c r="BU72" t="n" s="10">
+        <v>103.1</v>
       </c>
       <c r="BV72" t="s" s="10">
         <v>25</v>
@@ -18633,14 +18633,14 @@
       <c r="BR73" t="n" s="10">
         <v>114.2</v>
       </c>
-      <c r="BS73" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT73" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU73" t="s" s="10">
-        <v>25</v>
+      <c r="BS73" t="n" s="10">
+        <v>115.5</v>
+      </c>
+      <c r="BT73" t="n" s="10">
+        <v>117.5</v>
+      </c>
+      <c r="BU73" t="n" s="10">
+        <v>118.6</v>
       </c>
       <c r="BV73" t="s" s="10">
         <v>25</v>
@@ -18857,14 +18857,14 @@
       <c r="BR74" t="n" s="10">
         <v>119.7</v>
       </c>
-      <c r="BS74" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT74" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU74" t="s" s="10">
-        <v>25</v>
+      <c r="BS74" t="n" s="10">
+        <v>119.7</v>
+      </c>
+      <c r="BT74" t="n" s="10">
+        <v>119.7</v>
+      </c>
+      <c r="BU74" t="n" s="10">
+        <v>119.7</v>
       </c>
       <c r="BV74" t="s" s="10">
         <v>25</v>
@@ -19081,14 +19081,14 @@
       <c r="BR75" t="n" s="10">
         <v>112.3</v>
       </c>
-      <c r="BS75" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT75" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU75" t="s" s="10">
-        <v>25</v>
+      <c r="BS75" t="n" s="10">
+        <v>113.3</v>
+      </c>
+      <c r="BT75" t="n" s="10">
+        <v>114.2</v>
+      </c>
+      <c r="BU75" t="n" s="10">
+        <v>116.1</v>
       </c>
       <c r="BV75" t="s" s="10">
         <v>25</v>
@@ -19305,14 +19305,14 @@
       <c r="BR76" t="n" s="10">
         <v>112.5</v>
       </c>
-      <c r="BS76" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT76" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU76" t="s" s="10">
-        <v>25</v>
+      <c r="BS76" t="n" s="10">
+        <v>112.4</v>
+      </c>
+      <c r="BT76" t="n" s="10">
+        <v>112.6</v>
+      </c>
+      <c r="BU76" t="n" s="10">
+        <v>119.4</v>
       </c>
       <c r="BV76" t="s" s="10">
         <v>25</v>
@@ -19529,14 +19529,14 @@
       <c r="BR77" t="n" s="10">
         <v>97.6</v>
       </c>
-      <c r="BS77" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT77" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU77" t="s" s="10">
-        <v>25</v>
+      <c r="BS77" t="n" s="10">
+        <v>97.9</v>
+      </c>
+      <c r="BT77" t="n" s="10">
+        <v>99.6</v>
+      </c>
+      <c r="BU77" t="n" s="10">
+        <v>100.5</v>
       </c>
       <c r="BV77" t="s" s="10">
         <v>25</v>
@@ -19753,14 +19753,14 @@
       <c r="BR78" t="n" s="10">
         <v>102.3</v>
       </c>
-      <c r="BS78" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT78" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU78" t="s" s="10">
-        <v>25</v>
+      <c r="BS78" t="n" s="10">
+        <v>102.3</v>
+      </c>
+      <c r="BT78" t="n" s="10">
+        <v>102.1</v>
+      </c>
+      <c r="BU78" t="n" s="10">
+        <v>102.1</v>
       </c>
       <c r="BV78" t="s" s="10">
         <v>25</v>
@@ -19977,14 +19977,14 @@
       <c r="BR79" t="n" s="10">
         <v>102.0</v>
       </c>
-      <c r="BS79" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT79" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU79" t="s" s="10">
-        <v>25</v>
+      <c r="BS79" t="n" s="10">
+        <v>102.0</v>
+      </c>
+      <c r="BT79" t="n" s="10">
+        <v>102.3</v>
+      </c>
+      <c r="BU79" t="n" s="10">
+        <v>102.7</v>
       </c>
       <c r="BV79" t="s" s="10">
         <v>25</v>
@@ -20201,14 +20201,14 @@
       <c r="BR80" t="n" s="10">
         <v>95.6</v>
       </c>
-      <c r="BS80" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT80" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU80" t="s" s="10">
-        <v>25</v>
+      <c r="BS80" t="n" s="10">
+        <v>95.1</v>
+      </c>
+      <c r="BT80" t="n" s="10">
+        <v>95.1</v>
+      </c>
+      <c r="BU80" t="n" s="10">
+        <v>97.3</v>
       </c>
       <c r="BV80" t="s" s="10">
         <v>25</v>
@@ -20425,14 +20425,14 @@
       <c r="BR81" t="n" s="10">
         <v>102.0</v>
       </c>
-      <c r="BS81" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT81" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU81" t="s" s="10">
-        <v>25</v>
+      <c r="BS81" t="n" s="10">
+        <v>102.0</v>
+      </c>
+      <c r="BT81" t="n" s="10">
+        <v>111.6</v>
+      </c>
+      <c r="BU81" t="n" s="10">
+        <v>115.7</v>
       </c>
       <c r="BV81" t="s" s="10">
         <v>25</v>
@@ -20649,14 +20649,14 @@
       <c r="BR82" t="n" s="10">
         <v>118.5</v>
       </c>
-      <c r="BS82" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT82" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU82" t="s" s="10">
-        <v>25</v>
+      <c r="BS82" t="n" s="10">
+        <v>120.2</v>
+      </c>
+      <c r="BT82" t="n" s="10">
+        <v>131.0</v>
+      </c>
+      <c r="BU82" t="n" s="10">
+        <v>133.3</v>
       </c>
       <c r="BV82" t="s" s="10">
         <v>25</v>
@@ -20873,14 +20873,14 @@
       <c r="BR83" t="n" s="10">
         <v>109.8</v>
       </c>
-      <c r="BS83" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT83" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU83" t="s" s="10">
-        <v>25</v>
+      <c r="BS83" t="n" s="10">
+        <v>112.4</v>
+      </c>
+      <c r="BT83" t="n" s="10">
+        <v>119.2</v>
+      </c>
+      <c r="BU83" t="n" s="10">
+        <v>128.4</v>
       </c>
       <c r="BV83" t="s" s="10">
         <v>25</v>
@@ -21097,14 +21097,14 @@
       <c r="BR84" t="n" s="10">
         <v>112.0</v>
       </c>
-      <c r="BS84" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT84" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU84" t="s" s="10">
-        <v>25</v>
+      <c r="BS84" t="n" s="10">
+        <v>112.8</v>
+      </c>
+      <c r="BT84" t="n" s="10">
+        <v>113.1</v>
+      </c>
+      <c r="BU84" t="n" s="10">
+        <v>116.0</v>
       </c>
       <c r="BV84" t="s" s="10">
         <v>25</v>
@@ -21321,14 +21321,14 @@
       <c r="BR85" t="n" s="10">
         <v>107.3</v>
       </c>
-      <c r="BS85" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT85" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU85" t="s" s="10">
-        <v>25</v>
+      <c r="BS85" t="n" s="10">
+        <v>108.1</v>
+      </c>
+      <c r="BT85" t="n" s="10">
+        <v>109.8</v>
+      </c>
+      <c r="BU85" t="n" s="10">
+        <v>111.9</v>
       </c>
       <c r="BV85" t="s" s="10">
         <v>25</v>
@@ -21545,14 +21545,14 @@
       <c r="BR86" t="n" s="10">
         <v>122.6</v>
       </c>
-      <c r="BS86" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT86" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU86" t="s" s="10">
-        <v>25</v>
+      <c r="BS86" t="n" s="10">
+        <v>122.8</v>
+      </c>
+      <c r="BT86" t="n" s="10">
+        <v>122.8</v>
+      </c>
+      <c r="BU86" t="n" s="10">
+        <v>125.5</v>
       </c>
       <c r="BV86" t="s" s="10">
         <v>25</v>
@@ -21769,14 +21769,14 @@
       <c r="BR87" t="n" s="10">
         <v>113.1</v>
       </c>
-      <c r="BS87" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT87" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU87" t="s" s="10">
-        <v>25</v>
+      <c r="BS87" t="n" s="10">
+        <v>116.5</v>
+      </c>
+      <c r="BT87" t="n" s="10">
+        <v>122.6</v>
+      </c>
+      <c r="BU87" t="n" s="10">
+        <v>137.8</v>
       </c>
       <c r="BV87" t="s" s="10">
         <v>25</v>
@@ -21993,14 +21993,14 @@
       <c r="BR88" t="n" s="10">
         <v>118.7</v>
       </c>
-      <c r="BS88" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT88" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU88" t="s" s="10">
-        <v>25</v>
+      <c r="BS88" t="n" s="10">
+        <v>119.6</v>
+      </c>
+      <c r="BT88" t="n" s="10">
+        <v>120.9</v>
+      </c>
+      <c r="BU88" t="n" s="10">
+        <v>122.3</v>
       </c>
       <c r="BV88" t="s" s="10">
         <v>25</v>
@@ -22217,14 +22217,14 @@
       <c r="BR89" t="n" s="10">
         <v>121.9</v>
       </c>
-      <c r="BS89" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT89" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU89" t="s" s="10">
-        <v>25</v>
+      <c r="BS89" t="n" s="10">
+        <v>123.6</v>
+      </c>
+      <c r="BT89" t="n" s="10">
+        <v>123.6</v>
+      </c>
+      <c r="BU89" t="n" s="10">
+        <v>126.0</v>
       </c>
       <c r="BV89" t="s" s="10">
         <v>25</v>
@@ -22441,14 +22441,14 @@
       <c r="BR90" t="n" s="10">
         <v>107.6</v>
       </c>
-      <c r="BS90" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT90" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU90" t="s" s="10">
-        <v>25</v>
+      <c r="BS90" t="n" s="10">
+        <v>107.9</v>
+      </c>
+      <c r="BT90" t="n" s="10">
+        <v>110.3</v>
+      </c>
+      <c r="BU90" t="n" s="10">
+        <v>110.7</v>
       </c>
       <c r="BV90" t="s" s="10">
         <v>25</v>
@@ -22665,14 +22665,14 @@
       <c r="BR91" t="n" s="10">
         <v>112.2</v>
       </c>
-      <c r="BS91" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT91" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU91" t="s" s="10">
-        <v>25</v>
+      <c r="BS91" t="n" s="10">
+        <v>112.6</v>
+      </c>
+      <c r="BT91" t="n" s="10">
+        <v>113.3</v>
+      </c>
+      <c r="BU91" t="n" s="10">
+        <v>113.9</v>
       </c>
       <c r="BV91" t="s" s="10">
         <v>25</v>
@@ -22889,14 +22889,14 @@
       <c r="BR92" t="n" s="10">
         <v>110.3</v>
       </c>
-      <c r="BS92" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT92" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU92" t="s" s="10">
-        <v>25</v>
+      <c r="BS92" t="n" s="10">
+        <v>111.4</v>
+      </c>
+      <c r="BT92" t="n" s="10">
+        <v>114.5</v>
+      </c>
+      <c r="BU92" t="n" s="10">
+        <v>114.2</v>
       </c>
       <c r="BV92" t="s" s="10">
         <v>25</v>
@@ -23113,14 +23113,14 @@
       <c r="BR93" t="n" s="10">
         <v>104.5</v>
       </c>
-      <c r="BS93" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT93" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU93" t="s" s="10">
-        <v>25</v>
+      <c r="BS93" t="n" s="10">
+        <v>104.5</v>
+      </c>
+      <c r="BT93" t="n" s="10">
+        <v>104.9</v>
+      </c>
+      <c r="BU93" t="n" s="10">
+        <v>104.7</v>
       </c>
       <c r="BV93" t="s" s="10">
         <v>25</v>
@@ -23337,14 +23337,14 @@
       <c r="BR94" t="n" s="10">
         <v>92.3</v>
       </c>
-      <c r="BS94" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT94" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU94" t="s" s="10">
-        <v>25</v>
+      <c r="BS94" t="n" s="10">
+        <v>92.3</v>
+      </c>
+      <c r="BT94" t="n" s="10">
+        <v>92.3</v>
+      </c>
+      <c r="BU94" t="n" s="10">
+        <v>92.3</v>
       </c>
       <c r="BV94" t="s" s="10">
         <v>25</v>
@@ -23561,14 +23561,14 @@
       <c r="BR95" t="n" s="10">
         <v>112.4</v>
       </c>
-      <c r="BS95" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT95" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU95" t="s" s="10">
-        <v>25</v>
+      <c r="BS95" t="n" s="10">
+        <v>113.8</v>
+      </c>
+      <c r="BT95" t="n" s="10">
+        <v>118.7</v>
+      </c>
+      <c r="BU95" t="n" s="10">
+        <v>121.0</v>
       </c>
       <c r="BV95" t="s" s="10">
         <v>25</v>
@@ -23785,14 +23785,14 @@
       <c r="BR96" t="n" s="10">
         <v>110.1</v>
       </c>
-      <c r="BS96" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT96" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU96" t="s" s="10">
-        <v>25</v>
+      <c r="BS96" t="n" s="10">
+        <v>110.5</v>
+      </c>
+      <c r="BT96" t="n" s="10">
+        <v>110.5</v>
+      </c>
+      <c r="BU96" t="n" s="10">
+        <v>112.1</v>
       </c>
       <c r="BV96" t="s" s="10">
         <v>25</v>
@@ -24009,14 +24009,14 @@
       <c r="BR97" t="n" s="10">
         <v>118.0</v>
       </c>
-      <c r="BS97" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT97" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU97" t="s" s="10">
-        <v>25</v>
+      <c r="BS97" t="n" s="10">
+        <v>121.0</v>
+      </c>
+      <c r="BT97" t="n" s="10">
+        <v>127.5</v>
+      </c>
+      <c r="BU97" t="n" s="10">
+        <v>141.8</v>
       </c>
       <c r="BV97" t="s" s="10">
         <v>25</v>
@@ -24233,14 +24233,14 @@
       <c r="BR98" t="n" s="10">
         <v>105.7</v>
       </c>
-      <c r="BS98" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT98" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU98" t="s" s="10">
-        <v>25</v>
+      <c r="BS98" t="n" s="10">
+        <v>106.4</v>
+      </c>
+      <c r="BT98" t="n" s="10">
+        <v>106.9</v>
+      </c>
+      <c r="BU98" t="n" s="10">
+        <v>110.1</v>
       </c>
       <c r="BV98" t="s" s="10">
         <v>25</v>
@@ -24457,14 +24457,14 @@
       <c r="BR99" t="n" s="10">
         <v>109.3</v>
       </c>
-      <c r="BS99" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT99" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU99" t="s" s="10">
-        <v>25</v>
+      <c r="BS99" t="n" s="10">
+        <v>109.3</v>
+      </c>
+      <c r="BT99" t="n" s="10">
+        <v>112.7</v>
+      </c>
+      <c r="BU99" t="n" s="10">
+        <v>113.8</v>
       </c>
       <c r="BV99" t="s" s="10">
         <v>25</v>
@@ -24681,14 +24681,14 @@
       <c r="BR100" t="n" s="10">
         <v>105.7</v>
       </c>
-      <c r="BS100" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT100" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU100" t="s" s="10">
-        <v>25</v>
+      <c r="BS100" t="n" s="10">
+        <v>105.8</v>
+      </c>
+      <c r="BT100" t="n" s="10">
+        <v>105.6</v>
+      </c>
+      <c r="BU100" t="n" s="10">
+        <v>105.4</v>
       </c>
       <c r="BV100" t="s" s="10">
         <v>25</v>
@@ -24905,14 +24905,14 @@
       <c r="BR101" t="n" s="10">
         <v>107.3</v>
       </c>
-      <c r="BS101" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT101" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU101" t="s" s="10">
-        <v>25</v>
+      <c r="BS101" t="n" s="10">
+        <v>108.7</v>
+      </c>
+      <c r="BT101" t="n" s="10">
+        <v>110.5</v>
+      </c>
+      <c r="BU101" t="n" s="10">
+        <v>110.5</v>
       </c>
       <c r="BV101" t="s" s="10">
         <v>25</v>
@@ -25129,14 +25129,14 @@
       <c r="BR102" t="n" s="10">
         <v>107.8</v>
       </c>
-      <c r="BS102" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT102" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU102" t="s" s="10">
-        <v>25</v>
+      <c r="BS102" t="n" s="10">
+        <v>108.3</v>
+      </c>
+      <c r="BT102" t="n" s="10">
+        <v>109.9</v>
+      </c>
+      <c r="BU102" t="n" s="10">
+        <v>110.3</v>
       </c>
       <c r="BV102" t="s" s="10">
         <v>25</v>
@@ -25353,14 +25353,14 @@
       <c r="BR103" t="n" s="10">
         <v>115.9</v>
       </c>
-      <c r="BS103" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT103" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU103" t="s" s="10">
-        <v>25</v>
+      <c r="BS103" t="n" s="10">
+        <v>117.7</v>
+      </c>
+      <c r="BT103" t="n" s="10">
+        <v>118.9</v>
+      </c>
+      <c r="BU103" t="n" s="10">
+        <v>119.5</v>
       </c>
       <c r="BV103" t="s" s="10">
         <v>25</v>
@@ -25577,14 +25577,14 @@
       <c r="BR104" t="n" s="10">
         <v>112.3</v>
       </c>
-      <c r="BS104" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT104" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU104" t="s" s="10">
-        <v>25</v>
+      <c r="BS104" t="n" s="10">
+        <v>112.3</v>
+      </c>
+      <c r="BT104" t="n" s="10">
+        <v>113.0</v>
+      </c>
+      <c r="BU104" t="n" s="10">
+        <v>112.9</v>
       </c>
       <c r="BV104" t="s" s="10">
         <v>25</v>
@@ -25801,14 +25801,14 @@
       <c r="BR105" t="n" s="10">
         <v>118.4</v>
       </c>
-      <c r="BS105" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT105" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU105" t="s" s="10">
-        <v>25</v>
+      <c r="BS105" t="n" s="10">
+        <v>119.1</v>
+      </c>
+      <c r="BT105" t="n" s="10">
+        <v>120.6</v>
+      </c>
+      <c r="BU105" t="n" s="10">
+        <v>121.5</v>
       </c>
       <c r="BV105" t="s" s="10">
         <v>25</v>
@@ -26025,14 +26025,14 @@
       <c r="BR106" t="n" s="10">
         <v>105.0</v>
       </c>
-      <c r="BS106" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT106" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU106" t="s" s="10">
-        <v>25</v>
+      <c r="BS106" t="n" s="10">
+        <v>105.1</v>
+      </c>
+      <c r="BT106" t="n" s="10">
+        <v>105.3</v>
+      </c>
+      <c r="BU106" t="n" s="10">
+        <v>105.6</v>
       </c>
       <c r="BV106" t="s" s="10">
         <v>25</v>
@@ -26249,14 +26249,14 @@
       <c r="BR107" t="n" s="10">
         <v>127.3</v>
       </c>
-      <c r="BS107" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT107" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU107" t="s" s="10">
-        <v>25</v>
+      <c r="BS107" t="n" s="10">
+        <v>131.9</v>
+      </c>
+      <c r="BT107" t="n" s="10">
+        <v>138.8</v>
+      </c>
+      <c r="BU107" t="n" s="10">
+        <v>141.2</v>
       </c>
       <c r="BV107" t="s" s="10">
         <v>25</v>
@@ -26473,14 +26473,14 @@
       <c r="BR108" t="n" s="10">
         <v>116.7</v>
       </c>
-      <c r="BS108" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT108" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU108" t="s" s="10">
-        <v>25</v>
+      <c r="BS108" t="n" s="10">
+        <v>117.9</v>
+      </c>
+      <c r="BT108" t="n" s="10">
+        <v>118.4</v>
+      </c>
+      <c r="BU108" t="n" s="10">
+        <v>119.1</v>
       </c>
       <c r="BV108" t="s" s="10">
         <v>25</v>
@@ -26697,14 +26697,14 @@
       <c r="BR109" t="n" s="10">
         <v>106.8</v>
       </c>
-      <c r="BS109" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT109" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU109" t="s" s="10">
-        <v>25</v>
+      <c r="BS109" t="n" s="10">
+        <v>106.9</v>
+      </c>
+      <c r="BT109" t="n" s="10">
+        <v>106.9</v>
+      </c>
+      <c r="BU109" t="n" s="10">
+        <v>107.7</v>
       </c>
       <c r="BV109" t="s" s="10">
         <v>25</v>
@@ -26921,14 +26921,14 @@
       <c r="BR110" t="n" s="10">
         <v>99.9</v>
       </c>
-      <c r="BS110" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT110" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU110" t="s" s="10">
-        <v>25</v>
+      <c r="BS110" t="n" s="10">
+        <v>100.6</v>
+      </c>
+      <c r="BT110" t="n" s="10">
+        <v>102.3</v>
+      </c>
+      <c r="BU110" t="n" s="10">
+        <v>105.2</v>
       </c>
       <c r="BV110" t="s" s="10">
         <v>25</v>
@@ -27145,14 +27145,14 @@
       <c r="BR111" t="n" s="10">
         <v>105.1</v>
       </c>
-      <c r="BS111" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT111" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU111" t="s" s="10">
-        <v>25</v>
+      <c r="BS111" t="n" s="10">
+        <v>105.1</v>
+      </c>
+      <c r="BT111" t="n" s="10">
+        <v>105.1</v>
+      </c>
+      <c r="BU111" t="n" s="10">
+        <v>105.1</v>
       </c>
       <c r="BV111" t="s" s="10">
         <v>25</v>
@@ -27369,14 +27369,14 @@
       <c r="BR112" t="n" s="10">
         <v>103.9</v>
       </c>
-      <c r="BS112" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT112" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU112" t="s" s="10">
-        <v>25</v>
+      <c r="BS112" t="n" s="10">
+        <v>105.2</v>
+      </c>
+      <c r="BT112" t="n" s="10">
+        <v>106.1</v>
+      </c>
+      <c r="BU112" t="n" s="10">
+        <v>106.1</v>
       </c>
       <c r="BV112" t="s" s="10">
         <v>25</v>
@@ -27593,14 +27593,14 @@
       <c r="BR113" t="n" s="10">
         <v>108.4</v>
       </c>
-      <c r="BS113" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT113" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU113" t="s" s="10">
-        <v>25</v>
+      <c r="BS113" t="n" s="10">
+        <v>106.7</v>
+      </c>
+      <c r="BT113" t="n" s="10">
+        <v>106.5</v>
+      </c>
+      <c r="BU113" t="n" s="10">
+        <v>106.7</v>
       </c>
       <c r="BV113" t="s" s="10">
         <v>25</v>
@@ -27817,14 +27817,14 @@
       <c r="BR114" t="n" s="10">
         <v>111.6</v>
       </c>
-      <c r="BS114" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT114" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU114" t="s" s="10">
-        <v>25</v>
+      <c r="BS114" t="n" s="10">
+        <v>111.7</v>
+      </c>
+      <c r="BT114" t="n" s="10">
+        <v>111.8</v>
+      </c>
+      <c r="BU114" t="n" s="10">
+        <v>111.8</v>
       </c>
       <c r="BV114" t="s" s="10">
         <v>25</v>
@@ -28041,14 +28041,14 @@
       <c r="BR115" t="n" s="10">
         <v>113.5</v>
       </c>
-      <c r="BS115" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT115" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU115" t="s" s="10">
-        <v>25</v>
+      <c r="BS115" t="n" s="10">
+        <v>113.5</v>
+      </c>
+      <c r="BT115" t="n" s="10">
+        <v>114.3</v>
+      </c>
+      <c r="BU115" t="n" s="10">
+        <v>114.3</v>
       </c>
       <c r="BV115" t="s" s="10">
         <v>25</v>
@@ -28265,14 +28265,14 @@
       <c r="BR116" t="n" s="10">
         <v>122.4</v>
       </c>
-      <c r="BS116" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT116" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU116" t="s" s="10">
-        <v>25</v>
+      <c r="BS116" t="n" s="10">
+        <v>122.4</v>
+      </c>
+      <c r="BT116" t="n" s="10">
+        <v>122.4</v>
+      </c>
+      <c r="BU116" t="n" s="10">
+        <v>122.4</v>
       </c>
       <c r="BV116" t="s" s="10">
         <v>25</v>
@@ -28489,14 +28489,14 @@
       <c r="BR117" t="n" s="10">
         <v>101.1</v>
       </c>
-      <c r="BS117" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT117" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU117" t="s" s="10">
-        <v>25</v>
+      <c r="BS117" t="n" s="10">
+        <v>103.1</v>
+      </c>
+      <c r="BT117" t="n" s="10">
+        <v>103.2</v>
+      </c>
+      <c r="BU117" t="n" s="10">
+        <v>103.2</v>
       </c>
       <c r="BV117" t="s" s="10">
         <v>25</v>
@@ -28713,14 +28713,14 @@
       <c r="BR118" t="n" s="10">
         <v>113.8</v>
       </c>
-      <c r="BS118" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT118" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU118" t="s" s="10">
-        <v>25</v>
+      <c r="BS118" t="n" s="10">
+        <v>113.8</v>
+      </c>
+      <c r="BT118" t="n" s="10">
+        <v>113.9</v>
+      </c>
+      <c r="BU118" t="n" s="10">
+        <v>113.9</v>
       </c>
       <c r="BV118" t="s" s="10">
         <v>25</v>
@@ -28937,14 +28937,14 @@
       <c r="BR119" t="n" s="10">
         <v>112.2</v>
       </c>
-      <c r="BS119" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT119" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU119" t="s" s="10">
-        <v>25</v>
+      <c r="BS119" t="n" s="10">
+        <v>111.5</v>
+      </c>
+      <c r="BT119" t="n" s="10">
+        <v>111.3</v>
+      </c>
+      <c r="BU119" t="n" s="10">
+        <v>111.3</v>
       </c>
       <c r="BV119" t="s" s="10">
         <v>25</v>
@@ -29161,14 +29161,14 @@
       <c r="BR120" t="n" s="10">
         <v>119.9</v>
       </c>
-      <c r="BS120" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT120" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU120" t="s" s="10">
-        <v>25</v>
+      <c r="BS120" t="n" s="10">
+        <v>119.9</v>
+      </c>
+      <c r="BT120" t="n" s="10">
+        <v>119.9</v>
+      </c>
+      <c r="BU120" t="n" s="10">
+        <v>119.7</v>
       </c>
       <c r="BV120" t="s" s="10">
         <v>25</v>
@@ -29385,14 +29385,14 @@
       <c r="BR121" t="n" s="10">
         <v>120.2</v>
       </c>
-      <c r="BS121" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT121" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU121" t="s" s="10">
-        <v>25</v>
+      <c r="BS121" t="n" s="10">
+        <v>120.9</v>
+      </c>
+      <c r="BT121" t="n" s="10">
+        <v>121.2</v>
+      </c>
+      <c r="BU121" t="n" s="10">
+        <v>121.5</v>
       </c>
       <c r="BV121" t="s" s="10">
         <v>25</v>
@@ -29609,14 +29609,14 @@
       <c r="BR122" t="n" s="10">
         <v>118.0</v>
       </c>
-      <c r="BS122" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT122" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU122" t="s" s="10">
-        <v>25</v>
+      <c r="BS122" t="n" s="10">
+        <v>118.9</v>
+      </c>
+      <c r="BT122" t="n" s="10">
+        <v>120.0</v>
+      </c>
+      <c r="BU122" t="n" s="10">
+        <v>121.3</v>
       </c>
       <c r="BV122" t="s" s="10">
         <v>25</v>
@@ -29833,14 +29833,14 @@
       <c r="BR123" t="n" s="10">
         <v>120.6</v>
       </c>
-      <c r="BS123" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT123" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU123" t="s" s="10">
-        <v>25</v>
+      <c r="BS123" t="n" s="10">
+        <v>120.9</v>
+      </c>
+      <c r="BT123" t="n" s="10">
+        <v>120.9</v>
+      </c>
+      <c r="BU123" t="n" s="10">
+        <v>121.1</v>
       </c>
       <c r="BV123" t="s" s="10">
         <v>25</v>
@@ -30057,14 +30057,14 @@
       <c r="BR124" t="n" s="10">
         <v>109.3</v>
       </c>
-      <c r="BS124" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT124" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU124" t="s" s="10">
-        <v>25</v>
+      <c r="BS124" t="n" s="10">
+        <v>109.7</v>
+      </c>
+      <c r="BT124" t="n" s="10">
+        <v>109.3</v>
+      </c>
+      <c r="BU124" t="n" s="10">
+        <v>109.1</v>
       </c>
       <c r="BV124" t="s" s="10">
         <v>25</v>
@@ -30281,14 +30281,14 @@
       <c r="BR125" t="n" s="10">
         <v>110.7</v>
       </c>
-      <c r="BS125" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT125" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU125" t="s" s="10">
-        <v>25</v>
+      <c r="BS125" t="n" s="10">
+        <v>111.5</v>
+      </c>
+      <c r="BT125" t="n" s="10">
+        <v>111.5</v>
+      </c>
+      <c r="BU125" t="n" s="10">
+        <v>111.5</v>
       </c>
       <c r="BV125" t="s" s="10">
         <v>25</v>
@@ -30505,14 +30505,14 @@
       <c r="BR126" t="n" s="10">
         <v>114.3</v>
       </c>
-      <c r="BS126" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT126" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU126" t="s" s="10">
-        <v>25</v>
+      <c r="BS126" t="n" s="10">
+        <v>114.3</v>
+      </c>
+      <c r="BT126" t="n" s="10">
+        <v>114.3</v>
+      </c>
+      <c r="BU126" t="n" s="10">
+        <v>114.8</v>
       </c>
       <c r="BV126" t="s" s="10">
         <v>25</v>
@@ -30729,14 +30729,14 @@
       <c r="BR127" t="n" s="10">
         <v>105.9</v>
       </c>
-      <c r="BS127" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT127" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU127" t="s" s="10">
-        <v>25</v>
+      <c r="BS127" t="n" s="10">
+        <v>106.0</v>
+      </c>
+      <c r="BT127" t="n" s="10">
+        <v>107.3</v>
+      </c>
+      <c r="BU127" t="n" s="10">
+        <v>107.7</v>
       </c>
       <c r="BV127" t="s" s="10">
         <v>25</v>
@@ -30953,14 +30953,14 @@
       <c r="BR128" t="n" s="10">
         <v>108.9</v>
       </c>
-      <c r="BS128" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT128" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU128" t="s" s="10">
-        <v>25</v>
+      <c r="BS128" t="n" s="10">
+        <v>109.0</v>
+      </c>
+      <c r="BT128" t="n" s="10">
+        <v>109.3</v>
+      </c>
+      <c r="BU128" t="n" s="10">
+        <v>110.1</v>
       </c>
       <c r="BV128" t="s" s="10">
         <v>25</v>
@@ -31177,14 +31177,14 @@
       <c r="BR129" t="n" s="10">
         <v>110.9</v>
       </c>
-      <c r="BS129" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT129" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU129" t="s" s="10">
-        <v>25</v>
+      <c r="BS129" t="n" s="10">
+        <v>111.9</v>
+      </c>
+      <c r="BT129" t="n" s="10">
+        <v>112.1</v>
+      </c>
+      <c r="BU129" t="n" s="10">
+        <v>112.6</v>
       </c>
       <c r="BV129" t="s" s="10">
         <v>25</v>
@@ -31401,14 +31401,14 @@
       <c r="BR130" t="n" s="10">
         <v>161.6</v>
       </c>
-      <c r="BS130" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT130" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU130" t="s" s="10">
-        <v>25</v>
+      <c r="BS130" t="n" s="10">
+        <v>163.5</v>
+      </c>
+      <c r="BT130" t="n" s="10">
+        <v>161.2</v>
+      </c>
+      <c r="BU130" t="n" s="10">
+        <v>161.8</v>
       </c>
       <c r="BV130" t="s" s="10">
         <v>25</v>
@@ -31625,14 +31625,14 @@
       <c r="BR131" t="n" s="10">
         <v>131.8</v>
       </c>
-      <c r="BS131" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT131" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU131" t="s" s="10">
-        <v>25</v>
+      <c r="BS131" t="n" s="10">
+        <v>134.5</v>
+      </c>
+      <c r="BT131" t="n" s="10">
+        <v>136.9</v>
+      </c>
+      <c r="BU131" t="n" s="10">
+        <v>137.2</v>
       </c>
       <c r="BV131" t="s" s="10">
         <v>25</v>
@@ -31849,14 +31849,14 @@
       <c r="BR132" t="n" s="10">
         <v>144.0</v>
       </c>
-      <c r="BS132" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT132" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU132" t="s" s="10">
-        <v>25</v>
+      <c r="BS132" t="n" s="10">
+        <v>148.0</v>
+      </c>
+      <c r="BT132" t="n" s="10">
+        <v>150.8</v>
+      </c>
+      <c r="BU132" t="n" s="10">
+        <v>159.3</v>
       </c>
       <c r="BV132" t="s" s="10">
         <v>25</v>
@@ -32073,14 +32073,14 @@
       <c r="BR133" t="n" s="10">
         <v>145.0</v>
       </c>
-      <c r="BS133" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT133" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU133" t="s" s="10">
-        <v>25</v>
+      <c r="BS133" t="n" s="10">
+        <v>151.6</v>
+      </c>
+      <c r="BT133" t="n" s="10">
+        <v>153.6</v>
+      </c>
+      <c r="BU133" t="n" s="10">
+        <v>154.5</v>
       </c>
       <c r="BV133" t="s" s="10">
         <v>25</v>
@@ -32297,14 +32297,14 @@
       <c r="BR134" t="n" s="10">
         <v>162.9</v>
       </c>
-      <c r="BS134" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT134" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU134" t="s" s="10">
-        <v>25</v>
+      <c r="BS134" t="n" s="10">
+        <v>171.8</v>
+      </c>
+      <c r="BT134" t="n" s="10">
+        <v>173.2</v>
+      </c>
+      <c r="BU134" t="n" s="10">
+        <v>175.9</v>
       </c>
       <c r="BV134" t="s" s="10">
         <v>25</v>
@@ -32521,14 +32521,14 @@
       <c r="BR135" t="n" s="10">
         <v>142.6</v>
       </c>
-      <c r="BS135" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT135" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU135" t="s" s="10">
-        <v>25</v>
+      <c r="BS135" t="n" s="10">
+        <v>144.1</v>
+      </c>
+      <c r="BT135" t="n" s="10">
+        <v>148.8</v>
+      </c>
+      <c r="BU135" t="n" s="10">
+        <v>149.7</v>
       </c>
       <c r="BV135" t="s" s="10">
         <v>25</v>
@@ -32745,14 +32745,14 @@
       <c r="BR136" t="n" s="10">
         <v>137.7</v>
       </c>
-      <c r="BS136" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT136" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU136" t="s" s="10">
-        <v>25</v>
+      <c r="BS136" t="n" s="10">
+        <v>137.5</v>
+      </c>
+      <c r="BT136" t="n" s="10">
+        <v>137.8</v>
+      </c>
+      <c r="BU136" t="n" s="10">
+        <v>145.9</v>
       </c>
       <c r="BV136" t="s" s="10">
         <v>25</v>
@@ -32969,14 +32969,14 @@
       <c r="BR137" t="n" s="10">
         <v>112.7</v>
       </c>
-      <c r="BS137" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT137" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU137" t="s" s="10">
-        <v>25</v>
+      <c r="BS137" t="n" s="10">
+        <v>114.9</v>
+      </c>
+      <c r="BT137" t="n" s="10">
+        <v>124.4</v>
+      </c>
+      <c r="BU137" t="n" s="10">
+        <v>126.1</v>
       </c>
       <c r="BV137" t="s" s="10">
         <v>25</v>
@@ -33193,14 +33193,14 @@
       <c r="BR138" t="n" s="10">
         <v>129.8</v>
       </c>
-      <c r="BS138" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT138" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU138" t="s" s="10">
-        <v>25</v>
+      <c r="BS138" t="n" s="10">
+        <v>128.6</v>
+      </c>
+      <c r="BT138" t="n" s="10">
+        <v>140.6</v>
+      </c>
+      <c r="BU138" t="n" s="10">
+        <v>139.2</v>
       </c>
       <c r="BV138" t="s" s="10">
         <v>25</v>
@@ -33417,14 +33417,14 @@
       <c r="BR139" t="n" s="10">
         <v>143.3</v>
       </c>
-      <c r="BS139" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT139" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU139" t="s" s="10">
-        <v>25</v>
+      <c r="BS139" t="n" s="10">
+        <v>143.4</v>
+      </c>
+      <c r="BT139" t="n" s="10">
+        <v>153.3</v>
+      </c>
+      <c r="BU139" t="n" s="10">
+        <v>152.3</v>
       </c>
       <c r="BV139" t="s" s="10">
         <v>25</v>
@@ -33641,14 +33641,14 @@
       <c r="BR140" t="n" s="10">
         <v>108.6</v>
       </c>
-      <c r="BS140" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT140" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU140" t="s" s="10">
-        <v>25</v>
+      <c r="BS140" t="n" s="10">
+        <v>109.0</v>
+      </c>
+      <c r="BT140" t="n" s="10">
+        <v>109.5</v>
+      </c>
+      <c r="BU140" t="n" s="10">
+        <v>111.0</v>
       </c>
       <c r="BV140" t="s" s="10">
         <v>25</v>
@@ -33865,14 +33865,14 @@
       <c r="BR141" t="n" s="10">
         <v>111.3</v>
       </c>
-      <c r="BS141" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT141" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU141" t="s" s="10">
-        <v>25</v>
+      <c r="BS141" t="n" s="10">
+        <v>112.6</v>
+      </c>
+      <c r="BT141" t="n" s="10">
+        <v>114.3</v>
+      </c>
+      <c r="BU141" t="n" s="10">
+        <v>114.6</v>
       </c>
       <c r="BV141" t="s" s="10">
         <v>25</v>
@@ -34089,14 +34089,14 @@
       <c r="BR142" t="n" s="10">
         <v>108.7</v>
       </c>
-      <c r="BS142" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT142" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU142" t="s" s="10">
-        <v>25</v>
+      <c r="BS142" t="n" s="10">
+        <v>109.2</v>
+      </c>
+      <c r="BT142" t="n" s="10">
+        <v>109.6</v>
+      </c>
+      <c r="BU142" t="n" s="10">
+        <v>110.1</v>
       </c>
       <c r="BV142" t="s" s="10">
         <v>25</v>
@@ -34313,14 +34313,14 @@
       <c r="BR143" t="n" s="10">
         <v>104.6</v>
       </c>
-      <c r="BS143" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT143" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU143" t="s" s="10">
-        <v>25</v>
+      <c r="BS143" t="n" s="10">
+        <v>105.1</v>
+      </c>
+      <c r="BT143" t="n" s="10">
+        <v>106.5</v>
+      </c>
+      <c r="BU143" t="n" s="10">
+        <v>107.1</v>
       </c>
       <c r="BV143" t="s" s="10">
         <v>25</v>
@@ -34537,14 +34537,14 @@
       <c r="BR144" t="n" s="10">
         <v>120.9</v>
       </c>
-      <c r="BS144" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT144" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU144" t="s" s="10">
-        <v>25</v>
+      <c r="BS144" t="n" s="10">
+        <v>122.1</v>
+      </c>
+      <c r="BT144" t="n" s="10">
+        <v>124.1</v>
+      </c>
+      <c r="BU144" t="n" s="10">
+        <v>124.4</v>
       </c>
       <c r="BV144" t="s" s="10">
         <v>25</v>
@@ -34761,14 +34761,14 @@
       <c r="BR145" t="n" s="10">
         <v>124.1</v>
       </c>
-      <c r="BS145" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT145" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU145" t="s" s="10">
-        <v>25</v>
+      <c r="BS145" t="n" s="10">
+        <v>126.0</v>
+      </c>
+      <c r="BT145" t="n" s="10">
+        <v>127.2</v>
+      </c>
+      <c r="BU145" t="n" s="10">
+        <v>128.5</v>
       </c>
       <c r="BV145" t="s" s="10">
         <v>25</v>
@@ -34985,14 +34985,14 @@
       <c r="BR146" t="n" s="10">
         <v>116.5</v>
       </c>
-      <c r="BS146" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT146" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU146" t="s" s="10">
-        <v>25</v>
+      <c r="BS146" t="n" s="10">
+        <v>118.5</v>
+      </c>
+      <c r="BT146" t="n" s="10">
+        <v>119.6</v>
+      </c>
+      <c r="BU146" t="n" s="10">
+        <v>121.0</v>
       </c>
       <c r="BV146" t="s" s="10">
         <v>25</v>
@@ -35209,14 +35209,14 @@
       <c r="BR147" t="n" s="10">
         <v>116.0</v>
       </c>
-      <c r="BS147" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT147" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU147" t="s" s="10">
-        <v>25</v>
+      <c r="BS147" t="n" s="10">
+        <v>116.8</v>
+      </c>
+      <c r="BT147" t="n" s="10">
+        <v>116.7</v>
+      </c>
+      <c r="BU147" t="n" s="10">
+        <v>116.9</v>
       </c>
       <c r="BV147" t="s" s="10">
         <v>25</v>
@@ -35433,14 +35433,14 @@
       <c r="BR148" t="n" s="10">
         <v>122.5</v>
       </c>
-      <c r="BS148" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT148" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU148" t="s" s="10">
-        <v>25</v>
+      <c r="BS148" t="n" s="10">
+        <v>123.9</v>
+      </c>
+      <c r="BT148" t="n" s="10">
+        <v>125.1</v>
+      </c>
+      <c r="BU148" t="n" s="10">
+        <v>125.8</v>
       </c>
       <c r="BV148" t="s" s="10">
         <v>25</v>
@@ -35657,14 +35657,14 @@
       <c r="BR149" t="n" s="10">
         <v>116.0</v>
       </c>
-      <c r="BS149" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT149" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU149" t="s" s="10">
-        <v>25</v>
+      <c r="BS149" t="n" s="10">
+        <v>116.3</v>
+      </c>
+      <c r="BT149" t="n" s="10">
+        <v>116.3</v>
+      </c>
+      <c r="BU149" t="n" s="10">
+        <v>117.0</v>
       </c>
       <c r="BV149" t="s" s="10">
         <v>25</v>
@@ -35881,14 +35881,14 @@
       <c r="BR150" t="n" s="10">
         <v>114.7</v>
       </c>
-      <c r="BS150" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT150" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU150" t="s" s="10">
-        <v>25</v>
+      <c r="BS150" t="n" s="10">
+        <v>114.9</v>
+      </c>
+      <c r="BT150" t="n" s="10">
+        <v>116.5</v>
+      </c>
+      <c r="BU150" t="n" s="10">
+        <v>116.7</v>
       </c>
       <c r="BV150" t="s" s="10">
         <v>25</v>
@@ -36105,14 +36105,14 @@
       <c r="BR151" t="n" s="10">
         <v>108.5</v>
       </c>
-      <c r="BS151" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT151" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU151" t="s" s="10">
-        <v>25</v>
+      <c r="BS151" t="n" s="10">
+        <v>108.5</v>
+      </c>
+      <c r="BT151" t="n" s="10">
+        <v>109.3</v>
+      </c>
+      <c r="BU151" t="n" s="10">
+        <v>109.4</v>
       </c>
       <c r="BV151" t="s" s="10">
         <v>25</v>
@@ -36329,14 +36329,14 @@
       <c r="BR152" t="n" s="10">
         <v>108.1</v>
       </c>
-      <c r="BS152" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT152" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU152" t="s" s="10">
-        <v>25</v>
+      <c r="BS152" t="n" s="10">
+        <v>107.9</v>
+      </c>
+      <c r="BT152" t="n" s="10">
+        <v>110.0</v>
+      </c>
+      <c r="BU152" t="n" s="10">
+        <v>110.9</v>
       </c>
       <c r="BV152" t="s" s="10">
         <v>25</v>
@@ -36553,14 +36553,14 @@
       <c r="BR153" t="n" s="10">
         <v>112.7</v>
       </c>
-      <c r="BS153" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT153" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU153" t="s" s="10">
-        <v>25</v>
+      <c r="BS153" t="n" s="10">
+        <v>112.7</v>
+      </c>
+      <c r="BT153" t="n" s="10">
+        <v>113.7</v>
+      </c>
+      <c r="BU153" t="n" s="10">
+        <v>113.7</v>
       </c>
       <c r="BV153" t="s" s="10">
         <v>25</v>
@@ -36777,14 +36777,14 @@
       <c r="BR154" t="n" s="10">
         <v>108.9</v>
       </c>
-      <c r="BS154" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT154" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU154" t="s" s="10">
-        <v>25</v>
+      <c r="BS154" t="n" s="10">
+        <v>109.5</v>
+      </c>
+      <c r="BT154" t="n" s="10">
+        <v>110.1</v>
+      </c>
+      <c r="BU154" t="n" s="10">
+        <v>110.6</v>
       </c>
       <c r="BV154" t="s" s="10">
         <v>25</v>
@@ -37001,14 +37001,14 @@
       <c r="BR155" t="n" s="10">
         <v>106.9</v>
       </c>
-      <c r="BS155" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT155" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU155" t="s" s="10">
-        <v>25</v>
+      <c r="BS155" t="n" s="10">
+        <v>107.6</v>
+      </c>
+      <c r="BT155" t="n" s="10">
+        <v>107.7</v>
+      </c>
+      <c r="BU155" t="n" s="10">
+        <v>108.0</v>
       </c>
       <c r="BV155" t="s" s="10">
         <v>25</v>
@@ -37225,14 +37225,14 @@
       <c r="BR156" t="n" s="10">
         <v>129.7</v>
       </c>
-      <c r="BS156" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT156" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU156" t="s" s="10">
-        <v>25</v>
+      <c r="BS156" t="n" s="10">
+        <v>130.6</v>
+      </c>
+      <c r="BT156" t="n" s="10">
+        <v>133.8</v>
+      </c>
+      <c r="BU156" t="n" s="10">
+        <v>134.3</v>
       </c>
       <c r="BV156" t="s" s="10">
         <v>25</v>
@@ -37449,14 +37449,14 @@
       <c r="BR157" t="n" s="10">
         <v>109.3</v>
       </c>
-      <c r="BS157" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT157" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU157" t="s" s="10">
-        <v>25</v>
+      <c r="BS157" t="n" s="10">
+        <v>109.8</v>
+      </c>
+      <c r="BT157" t="n" s="10">
+        <v>109.9</v>
+      </c>
+      <c r="BU157" t="n" s="10">
+        <v>110.5</v>
       </c>
       <c r="BV157" t="s" s="10">
         <v>25</v>
@@ -37673,14 +37673,14 @@
       <c r="BR158" t="n" s="10">
         <v>123.7</v>
       </c>
-      <c r="BS158" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT158" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU158" t="s" s="10">
-        <v>25</v>
+      <c r="BS158" t="n" s="10">
+        <v>125.0</v>
+      </c>
+      <c r="BT158" t="n" s="10">
+        <v>125.5</v>
+      </c>
+      <c r="BU158" t="n" s="10">
+        <v>125.9</v>
       </c>
       <c r="BV158" t="s" s="10">
         <v>25</v>
@@ -37897,14 +37897,14 @@
       <c r="BR159" t="n" s="10">
         <v>110.5</v>
       </c>
-      <c r="BS159" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT159" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU159" t="s" s="10">
-        <v>25</v>
+      <c r="BS159" t="n" s="10">
+        <v>111.0</v>
+      </c>
+      <c r="BT159" t="n" s="10">
+        <v>111.0</v>
+      </c>
+      <c r="BU159" t="n" s="10">
+        <v>112.3</v>
       </c>
       <c r="BV159" t="s" s="10">
         <v>25</v>
@@ -38121,14 +38121,14 @@
       <c r="BR160" t="n" s="10">
         <v>112.5</v>
       </c>
-      <c r="BS160" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT160" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU160" t="s" s="10">
-        <v>25</v>
+      <c r="BS160" t="n" s="10">
+        <v>113.4</v>
+      </c>
+      <c r="BT160" t="n" s="10">
+        <v>115.4</v>
+      </c>
+      <c r="BU160" t="n" s="10">
+        <v>116.1</v>
       </c>
       <c r="BV160" t="s" s="10">
         <v>25</v>
@@ -38345,14 +38345,14 @@
       <c r="BR161" t="n" s="10">
         <v>77.8</v>
       </c>
-      <c r="BS161" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT161" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU161" t="s" s="10">
-        <v>25</v>
+      <c r="BS161" t="n" s="10">
+        <v>78.3</v>
+      </c>
+      <c r="BT161" t="n" s="10">
+        <v>79.0</v>
+      </c>
+      <c r="BU161" t="n" s="10">
+        <v>79.6</v>
       </c>
       <c r="BV161" t="s" s="10">
         <v>25</v>
@@ -38569,14 +38569,14 @@
       <c r="BR162" t="n" s="10">
         <v>87.8</v>
       </c>
-      <c r="BS162" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT162" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU162" t="s" s="10">
-        <v>25</v>
+      <c r="BS162" t="n" s="10">
+        <v>88.7</v>
+      </c>
+      <c r="BT162" t="n" s="10">
+        <v>89.6</v>
+      </c>
+      <c r="BU162" t="n" s="10">
+        <v>90.0</v>
       </c>
       <c r="BV162" t="s" s="10">
         <v>25</v>
@@ -38793,14 +38793,14 @@
       <c r="BR163" t="n" s="10">
         <v>85.8</v>
       </c>
-      <c r="BS163" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT163" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU163" t="s" s="10">
-        <v>25</v>
+      <c r="BS163" t="n" s="10">
+        <v>86.3</v>
+      </c>
+      <c r="BT163" t="n" s="10">
+        <v>87.0</v>
+      </c>
+      <c r="BU163" t="n" s="10">
+        <v>87.5</v>
       </c>
       <c r="BV163" t="s" s="10">
         <v>25</v>
@@ -39017,14 +39017,14 @@
       <c r="BR164" t="n" s="10">
         <v>99.7</v>
       </c>
-      <c r="BS164" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT164" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU164" t="s" s="10">
-        <v>25</v>
+      <c r="BS164" t="n" s="10">
+        <v>100.0</v>
+      </c>
+      <c r="BT164" t="n" s="10">
+        <v>100.1</v>
+      </c>
+      <c r="BU164" t="n" s="10">
+        <v>100.8</v>
       </c>
       <c r="BV164" t="s" s="10">
         <v>25</v>
@@ -39241,14 +39241,14 @@
       <c r="BR165" t="n" s="10">
         <v>104.4</v>
       </c>
-      <c r="BS165" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT165" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU165" t="s" s="10">
-        <v>25</v>
+      <c r="BS165" t="n" s="10">
+        <v>104.7</v>
+      </c>
+      <c r="BT165" t="n" s="10">
+        <v>104.7</v>
+      </c>
+      <c r="BU165" t="n" s="10">
+        <v>104.8</v>
       </c>
       <c r="BV165" t="s" s="10">
         <v>25</v>
@@ -39465,14 +39465,14 @@
       <c r="BR166" t="n" s="10">
         <v>107.9</v>
       </c>
-      <c r="BS166" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT166" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU166" t="s" s="10">
-        <v>25</v>
+      <c r="BS166" t="n" s="10">
+        <v>107.9</v>
+      </c>
+      <c r="BT166" t="n" s="10">
+        <v>108.1</v>
+      </c>
+      <c r="BU166" t="n" s="10">
+        <v>108.2</v>
       </c>
       <c r="BV166" t="s" s="10">
         <v>25</v>
@@ -39689,14 +39689,14 @@
       <c r="BR167" t="n" s="10">
         <v>111.3</v>
       </c>
-      <c r="BS167" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT167" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU167" t="s" s="10">
-        <v>25</v>
+      <c r="BS167" t="n" s="10">
+        <v>111.3</v>
+      </c>
+      <c r="BT167" t="n" s="10">
+        <v>111.3</v>
+      </c>
+      <c r="BU167" t="n" s="10">
+        <v>111.3</v>
       </c>
       <c r="BV167" t="s" s="10">
         <v>25</v>
@@ -39913,14 +39913,14 @@
       <c r="BR168" t="n" s="10">
         <v>100.2</v>
       </c>
-      <c r="BS168" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT168" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU168" t="s" s="10">
-        <v>25</v>
+      <c r="BS168" t="n" s="10">
+        <v>100.2</v>
+      </c>
+      <c r="BT168" t="n" s="10">
+        <v>100.2</v>
+      </c>
+      <c r="BU168" t="n" s="10">
+        <v>100.3</v>
       </c>
       <c r="BV168" t="s" s="10">
         <v>25</v>
@@ -40137,14 +40137,14 @@
       <c r="BR169" t="n" s="10">
         <v>104.9</v>
       </c>
-      <c r="BS169" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT169" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU169" t="s" s="10">
-        <v>25</v>
+      <c r="BS169" t="n" s="10">
+        <v>105.6</v>
+      </c>
+      <c r="BT169" t="n" s="10">
+        <v>105.6</v>
+      </c>
+      <c r="BU169" t="n" s="10">
+        <v>105.7</v>
       </c>
       <c r="BV169" t="s" s="10">
         <v>25</v>
@@ -40361,14 +40361,14 @@
       <c r="BR170" t="n" s="10">
         <v>109.6</v>
       </c>
-      <c r="BS170" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT170" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU170" t="s" s="10">
-        <v>25</v>
+      <c r="BS170" t="n" s="10">
+        <v>110.0</v>
+      </c>
+      <c r="BT170" t="n" s="10">
+        <v>110.8</v>
+      </c>
+      <c r="BU170" t="n" s="10">
+        <v>111.2</v>
       </c>
       <c r="BV170" t="s" s="10">
         <v>25</v>
@@ -40585,14 +40585,14 @@
       <c r="BR171" t="n" s="10">
         <v>109.2</v>
       </c>
-      <c r="BS171" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT171" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU171" t="s" s="10">
-        <v>25</v>
+      <c r="BS171" t="n" s="10">
+        <v>109.5</v>
+      </c>
+      <c r="BT171" t="n" s="10">
+        <v>110.5</v>
+      </c>
+      <c r="BU171" t="n" s="10">
+        <v>110.6</v>
       </c>
       <c r="BV171" t="s" s="10">
         <v>25</v>
@@ -40809,14 +40809,14 @@
       <c r="BR172" t="n" s="10">
         <v>105.9</v>
       </c>
-      <c r="BS172" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT172" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU172" t="s" s="10">
-        <v>25</v>
+      <c r="BS172" t="n" s="10">
+        <v>107.6</v>
+      </c>
+      <c r="BT172" t="n" s="10">
+        <v>109.5</v>
+      </c>
+      <c r="BU172" t="n" s="10">
+        <v>109.2</v>
       </c>
       <c r="BV172" t="s" s="10">
         <v>25</v>
@@ -41033,14 +41033,14 @@
       <c r="BR173" t="n" s="10">
         <v>117.4</v>
       </c>
-      <c r="BS173" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT173" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU173" t="s" s="10">
-        <v>25</v>
+      <c r="BS173" t="n" s="10">
+        <v>118.7</v>
+      </c>
+      <c r="BT173" t="n" s="10">
+        <v>119.8</v>
+      </c>
+      <c r="BU173" t="n" s="10">
+        <v>121.7</v>
       </c>
       <c r="BV173" t="s" s="10">
         <v>25</v>
@@ -41257,14 +41257,14 @@
       <c r="BR174" t="n" s="10">
         <v>111.1</v>
       </c>
-      <c r="BS174" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT174" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU174" t="s" s="10">
-        <v>25</v>
+      <c r="BS174" t="n" s="10">
+        <v>111.9</v>
+      </c>
+      <c r="BT174" t="n" s="10">
+        <v>112.6</v>
+      </c>
+      <c r="BU174" t="n" s="10">
+        <v>113.4</v>
       </c>
       <c r="BV174" t="s" s="10">
         <v>25</v>
@@ -41481,14 +41481,14 @@
       <c r="BR175" t="n" s="10">
         <v>102.1</v>
       </c>
-      <c r="BS175" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT175" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU175" t="s" s="10">
-        <v>25</v>
+      <c r="BS175" t="n" s="10">
+        <v>102.1</v>
+      </c>
+      <c r="BT175" t="n" s="10">
+        <v>102.8</v>
+      </c>
+      <c r="BU175" t="n" s="10">
+        <v>103.0</v>
       </c>
       <c r="BV175" t="s" s="10">
         <v>25</v>
@@ -41705,14 +41705,14 @@
       <c r="BR176" t="n" s="10">
         <v>107.8</v>
       </c>
-      <c r="BS176" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT176" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU176" t="s" s="10">
-        <v>25</v>
+      <c r="BS176" t="n" s="10">
+        <v>108.1</v>
+      </c>
+      <c r="BT176" t="n" s="10">
+        <v>108.3</v>
+      </c>
+      <c r="BU176" t="n" s="10">
+        <v>108.8</v>
       </c>
       <c r="BV176" t="s" s="10">
         <v>25</v>
@@ -41929,14 +41929,14 @@
       <c r="BR177" t="n" s="10">
         <v>114.8</v>
       </c>
-      <c r="BS177" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT177" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU177" t="s" s="10">
-        <v>25</v>
+      <c r="BS177" t="n" s="10">
+        <v>116.2</v>
+      </c>
+      <c r="BT177" t="n" s="10">
+        <v>116.7</v>
+      </c>
+      <c r="BU177" t="n" s="10">
+        <v>116.6</v>
       </c>
       <c r="BV177" t="s" s="10">
         <v>25</v>
@@ -42153,14 +42153,14 @@
       <c r="BR178" t="n" s="10">
         <v>105.1</v>
       </c>
-      <c r="BS178" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT178" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU178" t="s" s="10">
-        <v>25</v>
+      <c r="BS178" t="n" s="10">
+        <v>105.4</v>
+      </c>
+      <c r="BT178" t="n" s="10">
+        <v>105.6</v>
+      </c>
+      <c r="BU178" t="n" s="10">
+        <v>105.8</v>
       </c>
       <c r="BV178" t="s" s="10">
         <v>25</v>
@@ -42377,14 +42377,14 @@
       <c r="BR179" t="n" s="10">
         <v>104.8</v>
       </c>
-      <c r="BS179" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT179" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU179" t="s" s="10">
-        <v>25</v>
+      <c r="BS179" t="n" s="10">
+        <v>105.5</v>
+      </c>
+      <c r="BT179" t="n" s="10">
+        <v>105.8</v>
+      </c>
+      <c r="BU179" t="n" s="10">
+        <v>106.0</v>
       </c>
       <c r="BV179" t="s" s="10">
         <v>25</v>
@@ -42601,14 +42601,14 @@
       <c r="BR180" t="n" s="10">
         <v>107.3</v>
       </c>
-      <c r="BS180" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT180" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU180" t="s" s="10">
-        <v>25</v>
+      <c r="BS180" t="n" s="10">
+        <v>107.9</v>
+      </c>
+      <c r="BT180" t="n" s="10">
+        <v>108.1</v>
+      </c>
+      <c r="BU180" t="n" s="10">
+        <v>108.2</v>
       </c>
       <c r="BV180" t="s" s="10">
         <v>25</v>
@@ -42825,14 +42825,14 @@
       <c r="BR181" t="n" s="10">
         <v>109.6</v>
       </c>
-      <c r="BS181" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT181" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU181" t="s" s="10">
-        <v>25</v>
+      <c r="BS181" t="n" s="10">
+        <v>109.8</v>
+      </c>
+      <c r="BT181" t="n" s="10">
+        <v>110.0</v>
+      </c>
+      <c r="BU181" t="n" s="10">
+        <v>110.0</v>
       </c>
       <c r="BV181" t="s" s="10">
         <v>25</v>
@@ -43049,14 +43049,14 @@
       <c r="BR182" t="n" s="10">
         <v>115.6</v>
       </c>
-      <c r="BS182" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT182" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU182" t="s" s="10">
-        <v>25</v>
+      <c r="BS182" t="n" s="10">
+        <v>115.8</v>
+      </c>
+      <c r="BT182" t="n" s="10">
+        <v>116.9</v>
+      </c>
+      <c r="BU182" t="n" s="10">
+        <v>117.1</v>
       </c>
       <c r="BV182" t="s" s="10">
         <v>25</v>
@@ -43273,14 +43273,14 @@
       <c r="BR183" t="n" s="10">
         <v>107.0</v>
       </c>
-      <c r="BS183" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT183" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU183" t="s" s="10">
-        <v>25</v>
+      <c r="BS183" t="n" s="10">
+        <v>107.3</v>
+      </c>
+      <c r="BT183" t="n" s="10">
+        <v>107.7</v>
+      </c>
+      <c r="BU183" t="n" s="10">
+        <v>108.0</v>
       </c>
       <c r="BV183" t="s" s="10">
         <v>25</v>
@@ -43497,14 +43497,14 @@
       <c r="BR184" t="n" s="10">
         <v>111.3</v>
       </c>
-      <c r="BS184" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT184" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU184" t="s" s="10">
-        <v>25</v>
+      <c r="BS184" t="n" s="10">
+        <v>111.4</v>
+      </c>
+      <c r="BT184" t="n" s="10">
+        <v>111.7</v>
+      </c>
+      <c r="BU184" t="n" s="10">
+        <v>111.7</v>
       </c>
       <c r="BV184" t="s" s="10">
         <v>25</v>
@@ -43721,14 +43721,14 @@
       <c r="BR185" t="n" s="10">
         <v>112.8</v>
       </c>
-      <c r="BS185" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT185" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU185" t="s" s="10">
-        <v>25</v>
+      <c r="BS185" t="n" s="10">
+        <v>113.9</v>
+      </c>
+      <c r="BT185" t="n" s="10">
+        <v>114.2</v>
+      </c>
+      <c r="BU185" t="n" s="10">
+        <v>114.5</v>
       </c>
       <c r="BV185" t="s" s="10">
         <v>25</v>
@@ -43945,14 +43945,14 @@
       <c r="BR186" t="n" s="10">
         <v>102.6</v>
       </c>
-      <c r="BS186" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT186" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU186" t="s" s="10">
-        <v>25</v>
+      <c r="BS186" t="n" s="10">
+        <v>102.7</v>
+      </c>
+      <c r="BT186" t="n" s="10">
+        <v>102.7</v>
+      </c>
+      <c r="BU186" t="n" s="10">
+        <v>102.7</v>
       </c>
       <c r="BV186" t="s" s="10">
         <v>25</v>
@@ -44169,14 +44169,14 @@
       <c r="BR187" t="n" s="10">
         <v>108.9</v>
       </c>
-      <c r="BS187" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT187" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU187" t="s" s="10">
-        <v>25</v>
+      <c r="BS187" t="n" s="10">
+        <v>108.9</v>
+      </c>
+      <c r="BT187" t="n" s="10">
+        <v>109.5</v>
+      </c>
+      <c r="BU187" t="n" s="10">
+        <v>110.4</v>
       </c>
       <c r="BV187" t="s" s="10">
         <v>25</v>
@@ -44393,14 +44393,14 @@
       <c r="BR188" t="n" s="10">
         <v>108.1</v>
       </c>
-      <c r="BS188" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT188" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU188" t="s" s="10">
-        <v>25</v>
+      <c r="BS188" t="n" s="10">
+        <v>108.7</v>
+      </c>
+      <c r="BT188" t="n" s="10">
+        <v>109.1</v>
+      </c>
+      <c r="BU188" t="n" s="10">
+        <v>109.1</v>
       </c>
       <c r="BV188" t="s" s="10">
         <v>25</v>
@@ -44617,14 +44617,14 @@
       <c r="BR189" t="n" s="10">
         <v>109.4</v>
       </c>
-      <c r="BS189" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT189" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU189" t="s" s="10">
-        <v>25</v>
+      <c r="BS189" t="n" s="10">
+        <v>109.9</v>
+      </c>
+      <c r="BT189" t="n" s="10">
+        <v>110.1</v>
+      </c>
+      <c r="BU189" t="n" s="10">
+        <v>110.2</v>
       </c>
       <c r="BV189" t="s" s="10">
         <v>25</v>
@@ -44841,14 +44841,14 @@
       <c r="BR190" t="n" s="10">
         <v>114.5</v>
       </c>
-      <c r="BS190" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT190" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU190" t="s" s="10">
-        <v>25</v>
+      <c r="BS190" t="n" s="10">
+        <v>115.5</v>
+      </c>
+      <c r="BT190" t="n" s="10">
+        <v>116.4</v>
+      </c>
+      <c r="BU190" t="n" s="10">
+        <v>117.3</v>
       </c>
       <c r="BV190" t="s" s="10">
         <v>25</v>
@@ -45065,14 +45065,14 @@
       <c r="BR191" t="n" s="10">
         <v>109.4</v>
       </c>
-      <c r="BS191" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT191" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU191" t="s" s="10">
-        <v>25</v>
+      <c r="BS191" t="n" s="10">
+        <v>109.7</v>
+      </c>
+      <c r="BT191" t="n" s="10">
+        <v>110.0</v>
+      </c>
+      <c r="BU191" t="n" s="10">
+        <v>110.4</v>
       </c>
       <c r="BV191" t="s" s="10">
         <v>25</v>
@@ -45289,14 +45289,14 @@
       <c r="BR192" t="n" s="10">
         <v>112.7</v>
       </c>
-      <c r="BS192" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT192" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU192" t="s" s="10">
-        <v>25</v>
+      <c r="BS192" t="n" s="10">
+        <v>113.9</v>
+      </c>
+      <c r="BT192" t="n" s="10">
+        <v>114.3</v>
+      </c>
+      <c r="BU192" t="n" s="10">
+        <v>114.8</v>
       </c>
       <c r="BV192" t="s" s="10">
         <v>25</v>
@@ -45513,14 +45513,14 @@
       <c r="BR193" t="n" s="10">
         <v>109.0</v>
       </c>
-      <c r="BS193" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT193" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU193" t="s" s="10">
-        <v>25</v>
+      <c r="BS193" t="n" s="10">
+        <v>109.4</v>
+      </c>
+      <c r="BT193" t="n" s="10">
+        <v>109.4</v>
+      </c>
+      <c r="BU193" t="n" s="10">
+        <v>109.4</v>
       </c>
       <c r="BV193" t="s" s="10">
         <v>25</v>
@@ -45737,14 +45737,14 @@
       <c r="BR194" t="n" s="10">
         <v>110.2</v>
       </c>
-      <c r="BS194" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT194" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU194" t="s" s="10">
-        <v>25</v>
+      <c r="BS194" t="n" s="10">
+        <v>110.2</v>
+      </c>
+      <c r="BT194" t="n" s="10">
+        <v>111.1</v>
+      </c>
+      <c r="BU194" t="n" s="10">
+        <v>111.5</v>
       </c>
       <c r="BV194" t="s" s="10">
         <v>25</v>
@@ -45961,14 +45961,14 @@
       <c r="BR195" t="n" s="10">
         <v>108.6</v>
       </c>
-      <c r="BS195" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT195" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU195" t="s" s="10">
-        <v>25</v>
+      <c r="BS195" t="n" s="10">
+        <v>108.6</v>
+      </c>
+      <c r="BT195" t="n" s="10">
+        <v>109.1</v>
+      </c>
+      <c r="BU195" t="n" s="10">
+        <v>109.3</v>
       </c>
       <c r="BV195" t="s" s="10">
         <v>25</v>
@@ -46185,14 +46185,14 @@
       <c r="BR196" t="n" s="10">
         <v>109.2</v>
       </c>
-      <c r="BS196" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT196" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU196" t="s" s="10">
-        <v>25</v>
+      <c r="BS196" t="n" s="10">
+        <v>109.8</v>
+      </c>
+      <c r="BT196" t="n" s="10">
+        <v>110.0</v>
+      </c>
+      <c r="BU196" t="n" s="10">
+        <v>110.1</v>
       </c>
       <c r="BV196" t="s" s="10">
         <v>25</v>
@@ -46409,14 +46409,14 @@
       <c r="BR197" t="n" s="10">
         <v>109.1</v>
       </c>
-      <c r="BS197" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT197" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU197" t="s" s="10">
-        <v>25</v>
+      <c r="BS197" t="n" s="10">
+        <v>109.1</v>
+      </c>
+      <c r="BT197" t="n" s="10">
+        <v>109.8</v>
+      </c>
+      <c r="BU197" t="n" s="10">
+        <v>111.0</v>
       </c>
       <c r="BV197" t="s" s="10">
         <v>25</v>
@@ -46633,14 +46633,14 @@
       <c r="BR198" t="n" s="10">
         <v>110.5</v>
       </c>
-      <c r="BS198" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT198" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU198" t="s" s="10">
-        <v>25</v>
+      <c r="BS198" t="n" s="10">
+        <v>111.3</v>
+      </c>
+      <c r="BT198" t="n" s="10">
+        <v>111.7</v>
+      </c>
+      <c r="BU198" t="n" s="10">
+        <v>111.8</v>
       </c>
       <c r="BV198" t="s" s="10">
         <v>25</v>
@@ -46857,14 +46857,14 @@
       <c r="BR199" t="n" s="10">
         <v>107.4</v>
       </c>
-      <c r="BS199" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT199" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU199" t="s" s="10">
-        <v>25</v>
+      <c r="BS199" t="n" s="10">
+        <v>107.7</v>
+      </c>
+      <c r="BT199" t="n" s="10">
+        <v>107.8</v>
+      </c>
+      <c r="BU199" t="n" s="10">
+        <v>108.2</v>
       </c>
       <c r="BV199" t="s" s="10">
         <v>25</v>
@@ -47081,14 +47081,14 @@
       <c r="BR200" t="n" s="10">
         <v>107.7</v>
       </c>
-      <c r="BS200" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT200" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU200" t="s" s="10">
-        <v>25</v>
+      <c r="BS200" t="n" s="10">
+        <v>107.7</v>
+      </c>
+      <c r="BT200" t="n" s="10">
+        <v>108.3</v>
+      </c>
+      <c r="BU200" t="n" s="10">
+        <v>108.6</v>
       </c>
       <c r="BV200" t="s" s="10">
         <v>25</v>
@@ -47305,14 +47305,14 @@
       <c r="BR201" t="n" s="10">
         <v>110.0</v>
       </c>
-      <c r="BS201" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT201" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU201" t="s" s="10">
-        <v>25</v>
+      <c r="BS201" t="n" s="10">
+        <v>111.2</v>
+      </c>
+      <c r="BT201" t="n" s="10">
+        <v>112.2</v>
+      </c>
+      <c r="BU201" t="n" s="10">
+        <v>112.6</v>
       </c>
       <c r="BV201" t="s" s="10">
         <v>25</v>
@@ -47529,14 +47529,14 @@
       <c r="BR202" t="n" s="10">
         <v>102.9</v>
       </c>
-      <c r="BS202" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT202" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU202" t="s" s="10">
-        <v>25</v>
+      <c r="BS202" t="n" s="10">
+        <v>102.9</v>
+      </c>
+      <c r="BT202" t="n" s="10">
+        <v>103.0</v>
+      </c>
+      <c r="BU202" t="n" s="10">
+        <v>103.0</v>
       </c>
       <c r="BV202" t="s" s="10">
         <v>25</v>
@@ -47753,14 +47753,14 @@
       <c r="BR203" t="n" s="10">
         <v>101.6</v>
       </c>
-      <c r="BS203" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT203" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU203" t="s" s="10">
-        <v>25</v>
+      <c r="BS203" t="n" s="10">
+        <v>102.0</v>
+      </c>
+      <c r="BT203" t="n" s="10">
+        <v>102.9</v>
+      </c>
+      <c r="BU203" t="n" s="10">
+        <v>103.0</v>
       </c>
       <c r="BV203" t="s" s="10">
         <v>25</v>
@@ -47977,14 +47977,14 @@
       <c r="BR204" t="n" s="10">
         <v>106.3</v>
       </c>
-      <c r="BS204" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT204" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU204" t="s" s="10">
-        <v>25</v>
+      <c r="BS204" t="n" s="10">
+        <v>106.7</v>
+      </c>
+      <c r="BT204" t="n" s="10">
+        <v>106.7</v>
+      </c>
+      <c r="BU204" t="n" s="10">
+        <v>106.8</v>
       </c>
       <c r="BV204" t="s" s="10">
         <v>25</v>
@@ -48201,14 +48201,14 @@
       <c r="BR205" t="n" s="10">
         <v>105.3</v>
       </c>
-      <c r="BS205" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT205" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU205" t="s" s="10">
-        <v>25</v>
+      <c r="BS205" t="n" s="10">
+        <v>105.7</v>
+      </c>
+      <c r="BT205" t="n" s="10">
+        <v>105.7</v>
+      </c>
+      <c r="BU205" t="n" s="10">
+        <v>106.4</v>
       </c>
       <c r="BV205" t="s" s="10">
         <v>25</v>
@@ -48425,14 +48425,14 @@
       <c r="BR206" t="n" s="10">
         <v>110.6</v>
       </c>
-      <c r="BS206" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT206" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU206" t="s" s="10">
-        <v>25</v>
+      <c r="BS206" t="n" s="10">
+        <v>113.0</v>
+      </c>
+      <c r="BT206" t="n" s="10">
+        <v>113.4</v>
+      </c>
+      <c r="BU206" t="n" s="10">
+        <v>113.4</v>
       </c>
       <c r="BV206" t="s" s="10">
         <v>25</v>
@@ -48649,14 +48649,14 @@
       <c r="BR207" t="n" s="10">
         <v>111.0</v>
       </c>
-      <c r="BS207" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT207" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU207" t="s" s="10">
-        <v>25</v>
+      <c r="BS207" t="n" s="10">
+        <v>111.0</v>
+      </c>
+      <c r="BT207" t="n" s="10">
+        <v>111.0</v>
+      </c>
+      <c r="BU207" t="n" s="10">
+        <v>111.0</v>
       </c>
       <c r="BV207" t="s" s="10">
         <v>25</v>
@@ -48873,14 +48873,14 @@
       <c r="BR208" t="n" s="10">
         <v>109.8</v>
       </c>
-      <c r="BS208" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT208" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU208" t="s" s="10">
-        <v>25</v>
+      <c r="BS208" t="n" s="10">
+        <v>109.9</v>
+      </c>
+      <c r="BT208" t="n" s="10">
+        <v>110.6</v>
+      </c>
+      <c r="BU208" t="n" s="10">
+        <v>111.3</v>
       </c>
       <c r="BV208" t="s" s="10">
         <v>25</v>
@@ -49097,14 +49097,14 @@
       <c r="BR209" t="n" s="10">
         <v>109.9</v>
       </c>
-      <c r="BS209" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT209" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU209" t="s" s="10">
-        <v>25</v>
+      <c r="BS209" t="n" s="10">
+        <v>110.6</v>
+      </c>
+      <c r="BT209" t="n" s="10">
+        <v>110.6</v>
+      </c>
+      <c r="BU209" t="n" s="10">
+        <v>110.6</v>
       </c>
       <c r="BV209" t="s" s="10">
         <v>25</v>
@@ -49321,14 +49321,14 @@
       <c r="BR210" t="n" s="10">
         <v>112.1</v>
       </c>
-      <c r="BS210" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT210" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU210" t="s" s="10">
-        <v>25</v>
+      <c r="BS210" t="n" s="10">
+        <v>112.1</v>
+      </c>
+      <c r="BT210" t="n" s="10">
+        <v>112.5</v>
+      </c>
+      <c r="BU210" t="n" s="10">
+        <v>113.2</v>
       </c>
       <c r="BV210" t="s" s="10">
         <v>25</v>
@@ -49545,14 +49545,14 @@
       <c r="BR211" t="n" s="10">
         <v>112.5</v>
       </c>
-      <c r="BS211" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT211" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU211" t="s" s="10">
-        <v>25</v>
+      <c r="BS211" t="n" s="10">
+        <v>112.7</v>
+      </c>
+      <c r="BT211" t="n" s="10">
+        <v>113.3</v>
+      </c>
+      <c r="BU211" t="n" s="10">
+        <v>113.5</v>
       </c>
       <c r="BV211" t="s" s="10">
         <v>25</v>
@@ -49769,14 +49769,14 @@
       <c r="BR212" t="n" s="10">
         <v>114.6</v>
       </c>
-      <c r="BS212" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT212" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU212" t="s" s="10">
-        <v>25</v>
+      <c r="BS212" t="n" s="10">
+        <v>114.7</v>
+      </c>
+      <c r="BT212" t="n" s="10">
+        <v>115.0</v>
+      </c>
+      <c r="BU212" t="n" s="10">
+        <v>116.0</v>
       </c>
       <c r="BV212" t="s" s="10">
         <v>25</v>
@@ -49993,14 +49993,14 @@
       <c r="BR213" t="n" s="10">
         <v>127.1</v>
       </c>
-      <c r="BS213" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT213" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU213" t="s" s="10">
-        <v>25</v>
+      <c r="BS213" t="n" s="10">
+        <v>127.2</v>
+      </c>
+      <c r="BT213" t="n" s="10">
+        <v>127.2</v>
+      </c>
+      <c r="BU213" t="n" s="10">
+        <v>129.3</v>
       </c>
       <c r="BV213" t="s" s="10">
         <v>25</v>
@@ -50217,14 +50217,14 @@
       <c r="BR214" t="n" s="10">
         <v>120.2</v>
       </c>
-      <c r="BS214" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT214" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU214" t="s" s="10">
-        <v>25</v>
+      <c r="BS214" t="n" s="10">
+        <v>120.2</v>
+      </c>
+      <c r="BT214" t="n" s="10">
+        <v>120.2</v>
+      </c>
+      <c r="BU214" t="n" s="10">
+        <v>120.2</v>
       </c>
       <c r="BV214" t="s" s="10">
         <v>25</v>
@@ -50441,14 +50441,14 @@
       <c r="BR215" t="n" s="10">
         <v>116.7</v>
       </c>
-      <c r="BS215" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT215" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU215" t="s" s="10">
-        <v>25</v>
+      <c r="BS215" t="n" s="10">
+        <v>116.7</v>
+      </c>
+      <c r="BT215" t="n" s="10">
+        <v>116.7</v>
+      </c>
+      <c r="BU215" t="n" s="10">
+        <v>116.7</v>
       </c>
       <c r="BV215" t="s" s="10">
         <v>25</v>
@@ -50665,14 +50665,14 @@
       <c r="BR216" t="n" s="10">
         <v>107.5</v>
       </c>
-      <c r="BS216" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT216" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU216" t="s" s="10">
-        <v>25</v>
+      <c r="BS216" t="n" s="10">
+        <v>107.5</v>
+      </c>
+      <c r="BT216" t="n" s="10">
+        <v>107.8</v>
+      </c>
+      <c r="BU216" t="n" s="10">
+        <v>107.8</v>
       </c>
       <c r="BV216" t="s" s="10">
         <v>25</v>
@@ -50889,14 +50889,14 @@
       <c r="BR217" t="n" s="10">
         <v>107.3</v>
       </c>
-      <c r="BS217" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT217" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU217" t="s" s="10">
-        <v>25</v>
+      <c r="BS217" t="n" s="10">
+        <v>107.2</v>
+      </c>
+      <c r="BT217" t="n" s="10">
+        <v>107.3</v>
+      </c>
+      <c r="BU217" t="n" s="10">
+        <v>107.3</v>
       </c>
       <c r="BV217" t="s" s="10">
         <v>25</v>
@@ -51113,14 +51113,14 @@
       <c r="BR218" t="n" s="10">
         <v>102.6</v>
       </c>
-      <c r="BS218" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT218" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU218" t="s" s="10">
-        <v>25</v>
+      <c r="BS218" t="n" s="10">
+        <v>102.4</v>
+      </c>
+      <c r="BT218" t="n" s="10">
+        <v>102.4</v>
+      </c>
+      <c r="BU218" t="n" s="10">
+        <v>102.6</v>
       </c>
       <c r="BV218" t="s" s="10">
         <v>25</v>
@@ -51337,14 +51337,14 @@
       <c r="BR219" t="n" s="10">
         <v>111.6</v>
       </c>
-      <c r="BS219" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT219" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU219" t="s" s="10">
-        <v>25</v>
+      <c r="BS219" t="n" s="10">
+        <v>111.4</v>
+      </c>
+      <c r="BT219" t="n" s="10">
+        <v>112.0</v>
+      </c>
+      <c r="BU219" t="n" s="10">
+        <v>112.1</v>
       </c>
       <c r="BV219" t="s" s="10">
         <v>25</v>
@@ -51561,14 +51561,14 @@
       <c r="BR220" t="n" s="10">
         <v>111.2</v>
       </c>
-      <c r="BS220" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT220" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU220" t="s" s="10">
-        <v>25</v>
+      <c r="BS220" t="n" s="10">
+        <v>111.2</v>
+      </c>
+      <c r="BT220" t="n" s="10">
+        <v>111.2</v>
+      </c>
+      <c r="BU220" t="n" s="10">
+        <v>111.2</v>
       </c>
       <c r="BV220" t="s" s="10">
         <v>25</v>
@@ -51785,14 +51785,14 @@
       <c r="BR221" t="n" s="10">
         <v>114.9</v>
       </c>
-      <c r="BS221" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT221" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU221" t="s" s="10">
-        <v>25</v>
+      <c r="BS221" t="n" s="10">
+        <v>115.2</v>
+      </c>
+      <c r="BT221" t="n" s="10">
+        <v>115.2</v>
+      </c>
+      <c r="BU221" t="n" s="10">
+        <v>115.3</v>
       </c>
       <c r="BV221" t="s" s="10">
         <v>25</v>
@@ -52009,14 +52009,14 @@
       <c r="BR222" t="n" s="10">
         <v>111.0</v>
       </c>
-      <c r="BS222" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT222" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU222" t="s" s="10">
-        <v>25</v>
+      <c r="BS222" t="n" s="10">
+        <v>111.0</v>
+      </c>
+      <c r="BT222" t="n" s="10">
+        <v>111.2</v>
+      </c>
+      <c r="BU222" t="n" s="10">
+        <v>111.3</v>
       </c>
       <c r="BV222" t="s" s="10">
         <v>25</v>
@@ -52233,14 +52233,14 @@
       <c r="BR223" t="n" s="10">
         <v>109.7</v>
       </c>
-      <c r="BS223" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT223" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU223" t="s" s="10">
-        <v>25</v>
+      <c r="BS223" t="n" s="10">
+        <v>109.7</v>
+      </c>
+      <c r="BT223" t="n" s="10">
+        <v>109.8</v>
+      </c>
+      <c r="BU223" t="n" s="10">
+        <v>111.1</v>
       </c>
       <c r="BV223" t="s" s="10">
         <v>25</v>
@@ -52457,14 +52457,14 @@
       <c r="BR224" t="n" s="10">
         <v>114.3</v>
       </c>
-      <c r="BS224" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT224" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU224" t="s" s="10">
-        <v>25</v>
+      <c r="BS224" t="n" s="10">
+        <v>114.3</v>
+      </c>
+      <c r="BT224" t="n" s="10">
+        <v>114.3</v>
+      </c>
+      <c r="BU224" t="n" s="10">
+        <v>114.4</v>
       </c>
       <c r="BV224" t="s" s="10">
         <v>25</v>
@@ -52681,14 +52681,14 @@
       <c r="BR225" t="n" s="10">
         <v>118.2</v>
       </c>
-      <c r="BS225" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT225" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU225" t="s" s="10">
-        <v>25</v>
+      <c r="BS225" t="n" s="10">
+        <v>118.2</v>
+      </c>
+      <c r="BT225" t="n" s="10">
+        <v>121.0</v>
+      </c>
+      <c r="BU225" t="n" s="10">
+        <v>120.8</v>
       </c>
       <c r="BV225" t="s" s="10">
         <v>25</v>
@@ -52905,14 +52905,14 @@
       <c r="BR226" t="n" s="10">
         <v>119.7</v>
       </c>
-      <c r="BS226" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT226" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU226" t="s" s="10">
-        <v>25</v>
+      <c r="BS226" t="n" s="10">
+        <v>120.4</v>
+      </c>
+      <c r="BT226" t="n" s="10">
+        <v>120.4</v>
+      </c>
+      <c r="BU226" t="n" s="10">
+        <v>120.4</v>
       </c>
       <c r="BV226" t="s" s="10">
         <v>25</v>
@@ -53129,14 +53129,14 @@
       <c r="BR227" t="n" s="10">
         <v>105.5</v>
       </c>
-      <c r="BS227" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT227" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU227" t="s" s="10">
-        <v>25</v>
+      <c r="BS227" t="n" s="10">
+        <v>105.5</v>
+      </c>
+      <c r="BT227" t="n" s="10">
+        <v>105.5</v>
+      </c>
+      <c r="BU227" t="n" s="10">
+        <v>107.6</v>
       </c>
       <c r="BV227" t="s" s="10">
         <v>25</v>
@@ -53353,14 +53353,14 @@
       <c r="BR228" t="n" s="10">
         <v>113.4</v>
       </c>
-      <c r="BS228" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT228" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU228" t="s" s="10">
-        <v>25</v>
+      <c r="BS228" t="n" s="10">
+        <v>114.0</v>
+      </c>
+      <c r="BT228" t="n" s="10">
+        <v>114.1</v>
+      </c>
+      <c r="BU228" t="n" s="10">
+        <v>114.2</v>
       </c>
       <c r="BV228" t="s" s="10">
         <v>25</v>
@@ -53577,14 +53577,14 @@
       <c r="BR229" t="n" s="10">
         <v>141.8</v>
       </c>
-      <c r="BS229" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT229" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU229" t="s" s="10">
-        <v>25</v>
+      <c r="BS229" t="n" s="10">
+        <v>156.2</v>
+      </c>
+      <c r="BT229" t="n" s="10">
+        <v>176.2</v>
+      </c>
+      <c r="BU229" t="n" s="10">
+        <v>174.0</v>
       </c>
       <c r="BV229" t="s" s="10">
         <v>25</v>
@@ -53801,14 +53801,14 @@
       <c r="BR230" t="n" s="10">
         <v>168.7</v>
       </c>
-      <c r="BS230" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT230" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU230" t="s" s="10">
-        <v>25</v>
+      <c r="BS230" t="n" s="10">
+        <v>168.7</v>
+      </c>
+      <c r="BT230" t="n" s="10">
+        <v>168.7</v>
+      </c>
+      <c r="BU230" t="n" s="10">
+        <v>168.7</v>
       </c>
       <c r="BV230" t="s" s="10">
         <v>25</v>
@@ -54025,14 +54025,14 @@
       <c r="BR231" t="n" s="10">
         <v>135.8</v>
       </c>
-      <c r="BS231" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT231" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU231" t="s" s="10">
-        <v>25</v>
+      <c r="BS231" t="n" s="10">
+        <v>135.8</v>
+      </c>
+      <c r="BT231" t="n" s="10">
+        <v>135.8</v>
+      </c>
+      <c r="BU231" t="n" s="10">
+        <v>135.8</v>
       </c>
       <c r="BV231" t="s" s="10">
         <v>25</v>
@@ -54249,14 +54249,14 @@
       <c r="BR232" t="n" s="10">
         <v>121.5</v>
       </c>
-      <c r="BS232" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT232" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU232" t="s" s="10">
-        <v>25</v>
+      <c r="BS232" t="n" s="10">
+        <v>121.5</v>
+      </c>
+      <c r="BT232" t="n" s="10">
+        <v>121.5</v>
+      </c>
+      <c r="BU232" t="n" s="10">
+        <v>121.5</v>
       </c>
       <c r="BV232" t="s" s="10">
         <v>25</v>
@@ -54473,14 +54473,14 @@
       <c r="BR233" t="n" s="10">
         <v>106.4</v>
       </c>
-      <c r="BS233" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT233" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU233" t="s" s="10">
-        <v>25</v>
+      <c r="BS233" t="n" s="10">
+        <v>120.0</v>
+      </c>
+      <c r="BT233" t="n" s="10">
+        <v>141.5</v>
+      </c>
+      <c r="BU233" t="n" s="10">
+        <v>146.2</v>
       </c>
       <c r="BV233" t="s" s="10">
         <v>25</v>
@@ -54697,14 +54697,14 @@
       <c r="BR234" t="n" s="10">
         <v>97.2</v>
       </c>
-      <c r="BS234" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT234" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU234" t="s" s="10">
-        <v>25</v>
+      <c r="BS234" t="n" s="10">
+        <v>97.5</v>
+      </c>
+      <c r="BT234" t="n" s="10">
+        <v>100.2</v>
+      </c>
+      <c r="BU234" t="n" s="10">
+        <v>101.5</v>
       </c>
       <c r="BV234" t="s" s="10">
         <v>25</v>
@@ -54921,14 +54921,14 @@
       <c r="BR235" t="n" s="10">
         <v>110.2</v>
       </c>
-      <c r="BS235" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT235" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU235" t="s" s="10">
-        <v>25</v>
+      <c r="BS235" t="n" s="10">
+        <v>110.3</v>
+      </c>
+      <c r="BT235" t="n" s="10">
+        <v>110.4</v>
+      </c>
+      <c r="BU235" t="n" s="10">
+        <v>110.3</v>
       </c>
       <c r="BV235" t="s" s="10">
         <v>25</v>
@@ -55145,14 +55145,14 @@
       <c r="BR236" t="n" s="10">
         <v>184.4</v>
       </c>
-      <c r="BS236" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BT236" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="BU236" t="s" s="10">
-        <v>25</v>
+      <c r="BS236" t="n" s="10">
+        <v>179.5</v>
+      </c>
+      <c r="BT236" t="n" s="10">
+        <v>178.2</v>
+      </c>
+      <c r="BU236" t="n" s="10">
+        <v>181.2</v>
       </c>
       <c r="BV236" t="s" s="10">
         <v>25</v>
@@ -55184,7 +55184,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 07.10.21 / 10:28:29&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.12.21 / 11:25:50&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>